--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.303629093245326</v>
+        <v>7.303629093245327</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.323299416557179</v>
+        <v>7.323299416557052</v>
       </c>
       <c r="E2">
-        <v>17.17002673623735</v>
+        <v>17.17002673623736</v>
       </c>
       <c r="F2">
-        <v>72.26983172210663</v>
+        <v>72.2698317221065</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.13277076515627</v>
+        <v>16.13277076515621</v>
       </c>
       <c r="J2">
-        <v>77.66312872502789</v>
+        <v>77.6631287250278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.925777340025352</v>
+        <v>6.925777340025337</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.40273690863557</v>
+        <v>6.402736908635457</v>
       </c>
       <c r="E3">
-        <v>15.56985250346172</v>
+        <v>15.56985250346183</v>
       </c>
       <c r="F3">
-        <v>64.74073875678594</v>
+        <v>64.74073875678647</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.5536576387509</v>
+        <v>14.55365763875099</v>
       </c>
       <c r="J3">
-        <v>70.97216871868555</v>
+        <v>70.97216871868565</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.690250342478588</v>
+        <v>6.69025034247859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.873598317029784</v>
+        <v>5.87359831702967</v>
       </c>
       <c r="E4">
-        <v>14.61011655870496</v>
+        <v>14.61011655870498</v>
       </c>
       <c r="F4">
-        <v>60.35831698163204</v>
+        <v>60.35831698163214</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.61614908830198</v>
+        <v>13.61614908830197</v>
       </c>
       <c r="J4">
-        <v>66.89153697461444</v>
+        <v>66.89153697461448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.593360707996698</v>
+        <v>6.593360707996696</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.663616914212486</v>
+        <v>5.663616914212414</v>
       </c>
       <c r="E5">
-        <v>14.22039601101406</v>
+        <v>14.220396011014</v>
       </c>
       <c r="F5">
-        <v>58.60926165586038</v>
+        <v>58.6092616558601</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.23742541261691</v>
+        <v>13.23742541261685</v>
       </c>
       <c r="J5">
-        <v>65.22092405965572</v>
+        <v>65.2209240596555</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.577217935760518</v>
+        <v>6.57721793576059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.629015878544544</v>
+        <v>5.629015878544535</v>
       </c>
       <c r="E6">
-        <v>14.15567120229355</v>
+        <v>14.15567120229348</v>
       </c>
       <c r="F6">
-        <v>58.32054852376839</v>
+        <v>58.32054852376819</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.17463508489291</v>
+        <v>13.17463508489286</v>
       </c>
       <c r="J6">
-        <v>64.94273008885317</v>
+        <v>64.94273008885307</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.688947319766372</v>
+        <v>6.688947319766441</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.870747092754938</v>
+        <v>5.870747092754837</v>
       </c>
       <c r="E7">
-        <v>14.6048595484082</v>
+        <v>14.60485954840821</v>
       </c>
       <c r="F7">
-        <v>60.33460349678526</v>
+        <v>60.33460349678567</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.61103294209931</v>
+        <v>13.61103294209929</v>
       </c>
       <c r="J7">
-        <v>66.86905297595015</v>
+        <v>66.86905297595045</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.17403560266682</v>
+        <v>7.174035602666835</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.995789216925713</v>
+        <v>6.995789216925671</v>
       </c>
       <c r="E8">
         <v>16.61025659980969</v>
       </c>
       <c r="F8">
-        <v>69.60572207532614</v>
+        <v>69.60572207532577</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.57802877233604</v>
+        <v>15.578028772336</v>
       </c>
       <c r="J8">
-        <v>75.33924506834086</v>
+        <v>75.33924506834083</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E9">
         <v>21.14825717604058</v>
       </c>
       <c r="F9">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J9">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E10">
         <v>21.14825717604058</v>
       </c>
       <c r="F10">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J10">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E11">
         <v>21.14825717604058</v>
       </c>
       <c r="F11">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J11">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E12">
         <v>21.14825717604058</v>
       </c>
       <c r="F12">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J12">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E13">
         <v>21.14825717604058</v>
       </c>
       <c r="F13">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J13">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E14">
         <v>21.14825717604058</v>
       </c>
       <c r="F14">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J14">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E15">
         <v>21.14825717604058</v>
       </c>
       <c r="F15">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J15">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E16">
         <v>21.14825717604058</v>
       </c>
       <c r="F16">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J16">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E17">
         <v>21.14825717604058</v>
       </c>
       <c r="F17">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J17">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E18">
         <v>21.14825717604058</v>
       </c>
       <c r="F18">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J18">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E19">
         <v>21.14825717604058</v>
       </c>
       <c r="F19">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J19">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E20">
         <v>21.14825717604058</v>
       </c>
       <c r="F20">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J20">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E21">
         <v>21.14825717604058</v>
       </c>
       <c r="F21">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J21">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E22">
         <v>21.14825717604058</v>
       </c>
       <c r="F22">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J22">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E23">
         <v>21.14825717604058</v>
       </c>
       <c r="F23">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J23">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E24">
         <v>21.14825717604058</v>
       </c>
       <c r="F24">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J24">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.106122459482366</v>
+        <v>8.106122459482378</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.824122856838276</v>
+        <v>9.824122856838054</v>
       </c>
       <c r="E25">
         <v>21.14825717604058</v>
       </c>
       <c r="F25">
-        <v>92.05434296077792</v>
+        <v>92.05434296077668</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.15390283763546</v>
+        <v>20.15390283763536</v>
       </c>
       <c r="J25">
-        <v>93.58392449797608</v>
+        <v>93.58392449797584</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.303629093245327</v>
+        <v>7.303629093245326</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.323299416557052</v>
+        <v>7.323299416557179</v>
       </c>
       <c r="E2">
-        <v>17.17002673623736</v>
+        <v>17.17002673623735</v>
       </c>
       <c r="F2">
-        <v>72.2698317221065</v>
+        <v>72.26983172210663</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.13277076515621</v>
+        <v>16.13277076515627</v>
       </c>
       <c r="J2">
-        <v>77.6631287250278</v>
+        <v>77.66312872502789</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.925777340025337</v>
+        <v>6.925777340025352</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.402736908635457</v>
+        <v>6.40273690863557</v>
       </c>
       <c r="E3">
-        <v>15.56985250346183</v>
+        <v>15.56985250346172</v>
       </c>
       <c r="F3">
-        <v>64.74073875678647</v>
+        <v>64.74073875678594</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.55365763875099</v>
+        <v>14.5536576387509</v>
       </c>
       <c r="J3">
-        <v>70.97216871868565</v>
+        <v>70.97216871868555</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.69025034247859</v>
+        <v>6.690250342478588</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.87359831702967</v>
+        <v>5.873598317029784</v>
       </c>
       <c r="E4">
-        <v>14.61011655870498</v>
+        <v>14.61011655870496</v>
       </c>
       <c r="F4">
-        <v>60.35831698163214</v>
+        <v>60.35831698163204</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.61614908830197</v>
+        <v>13.61614908830198</v>
       </c>
       <c r="J4">
-        <v>66.89153697461448</v>
+        <v>66.89153697461444</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.593360707996696</v>
+        <v>6.593360707996698</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.663616914212414</v>
+        <v>5.663616914212486</v>
       </c>
       <c r="E5">
-        <v>14.220396011014</v>
+        <v>14.22039601101406</v>
       </c>
       <c r="F5">
-        <v>58.6092616558601</v>
+        <v>58.60926165586038</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.23742541261685</v>
+        <v>13.23742541261691</v>
       </c>
       <c r="J5">
-        <v>65.2209240596555</v>
+        <v>65.22092405965572</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57721793576059</v>
+        <v>6.577217935760518</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.629015878544535</v>
+        <v>5.629015878544544</v>
       </c>
       <c r="E6">
-        <v>14.15567120229348</v>
+        <v>14.15567120229355</v>
       </c>
       <c r="F6">
-        <v>58.32054852376819</v>
+        <v>58.32054852376839</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.17463508489286</v>
+        <v>13.17463508489291</v>
       </c>
       <c r="J6">
-        <v>64.94273008885307</v>
+        <v>64.94273008885317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.688947319766441</v>
+        <v>6.688947319766372</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.870747092754837</v>
+        <v>5.870747092754938</v>
       </c>
       <c r="E7">
-        <v>14.60485954840821</v>
+        <v>14.6048595484082</v>
       </c>
       <c r="F7">
-        <v>60.33460349678567</v>
+        <v>60.33460349678526</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.61103294209929</v>
+        <v>13.61103294209931</v>
       </c>
       <c r="J7">
-        <v>66.86905297595045</v>
+        <v>66.86905297595015</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.174035602666835</v>
+        <v>7.17403560266682</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.995789216925671</v>
+        <v>6.995789216925713</v>
       </c>
       <c r="E8">
         <v>16.61025659980969</v>
       </c>
       <c r="F8">
-        <v>69.60572207532577</v>
+        <v>69.60572207532614</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.578028772336</v>
+        <v>15.57802877233604</v>
       </c>
       <c r="J8">
-        <v>75.33924506834083</v>
+        <v>75.33924506834086</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E9">
         <v>21.14825717604058</v>
       </c>
       <c r="F9">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J9">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E10">
         <v>21.14825717604058</v>
       </c>
       <c r="F10">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J10">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E11">
         <v>21.14825717604058</v>
       </c>
       <c r="F11">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J11">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E12">
         <v>21.14825717604058</v>
       </c>
       <c r="F12">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J12">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E13">
         <v>21.14825717604058</v>
       </c>
       <c r="F13">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J13">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E14">
         <v>21.14825717604058</v>
       </c>
       <c r="F14">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J14">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E15">
         <v>21.14825717604058</v>
       </c>
       <c r="F15">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J15">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E16">
         <v>21.14825717604058</v>
       </c>
       <c r="F16">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J16">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E17">
         <v>21.14825717604058</v>
       </c>
       <c r="F17">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J17">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E18">
         <v>21.14825717604058</v>
       </c>
       <c r="F18">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J18">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E19">
         <v>21.14825717604058</v>
       </c>
       <c r="F19">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J19">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E20">
         <v>21.14825717604058</v>
       </c>
       <c r="F20">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J20">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E21">
         <v>21.14825717604058</v>
       </c>
       <c r="F21">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J21">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E22">
         <v>21.14825717604058</v>
       </c>
       <c r="F22">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J22">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E23">
         <v>21.14825717604058</v>
       </c>
       <c r="F23">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J23">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E24">
         <v>21.14825717604058</v>
       </c>
       <c r="F24">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J24">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.106122459482378</v>
+        <v>8.106122459482366</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.824122856838054</v>
+        <v>9.824122856838276</v>
       </c>
       <c r="E25">
         <v>21.14825717604058</v>
       </c>
       <c r="F25">
-        <v>92.05434296077668</v>
+        <v>92.05434296077792</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.15390283763536</v>
+        <v>20.15390283763546</v>
       </c>
       <c r="J25">
-        <v>93.58392449797584</v>
+        <v>93.58392449797608</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.303629093245326</v>
+        <v>7.300359539744259</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.323299416557179</v>
+        <v>7.118972154128844</v>
       </c>
       <c r="E2">
-        <v>17.17002673623735</v>
+        <v>17.07708510115889</v>
       </c>
       <c r="F2">
-        <v>72.26983172210663</v>
+        <v>71.52599966913719</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.83316569410413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.13277076515627</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>77.66312872502789</v>
+        <v>15.9975579051062</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>77.09831590344596</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.925777340025352</v>
+        <v>6.923321925901307</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.40273690863557</v>
+        <v>6.217641561694373</v>
       </c>
       <c r="E3">
-        <v>15.56985250346172</v>
+        <v>15.49544864889527</v>
       </c>
       <c r="F3">
-        <v>64.74073875678594</v>
+        <v>64.16281576211678</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.882453736135081</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.5536576387509</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>70.97216871868555</v>
+        <v>14.43939857834873</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>70.47859377708416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.690250342478588</v>
+        <v>6.688254100035978</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.873598317029784</v>
+        <v>5.699372956147295</v>
       </c>
       <c r="E4">
-        <v>14.61011655870496</v>
+        <v>14.54485406694272</v>
       </c>
       <c r="F4">
-        <v>60.35831698163204</v>
+        <v>59.87510491594853</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.910663167996073</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.61614908830198</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>66.89153697461444</v>
+        <v>13.51225846289655</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>66.43451411442857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.593360707996698</v>
+        <v>6.591547017165444</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.663616914212486</v>
+        <v>5.493780231530574</v>
       </c>
       <c r="E5">
-        <v>14.22039601101406</v>
+        <v>14.15852232773059</v>
       </c>
       <c r="F5">
-        <v>58.60926165586038</v>
+        <v>58.16426769478077</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.92182815092558</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.23742541261691</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>65.22092405965572</v>
+        <v>13.13738383875396</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>64.77775740584738</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.577217935760518</v>
+        <v>6.575434391875177</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.629015878544544</v>
+        <v>5.459909535438612</v>
       </c>
       <c r="E6">
-        <v>14.15567120229355</v>
+        <v>14.09434431024819</v>
       </c>
       <c r="F6">
-        <v>58.32054852376839</v>
+        <v>57.88190698608261</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.923666222627431</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.17463508489291</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>64.94273008885317</v>
+        <v>13.07521480826857</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>64.50181651835824</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.688947319766372</v>
+        <v>6.686953552500658</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.870747092754938</v>
+        <v>5.696580892797614</v>
       </c>
       <c r="E7">
-        <v>14.6048595484082</v>
+        <v>14.53964391116624</v>
       </c>
       <c r="F7">
-        <v>60.33460349678526</v>
+        <v>59.85190700311433</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.91081488867228</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.61103294209931</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>66.86905297595015</v>
+        <v>13.50719551616821</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>66.41222047586741</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.17403560266682</v>
+        <v>7.171059910438099</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.995789216925713</v>
+        <v>6.798443999686856</v>
       </c>
       <c r="E8">
-        <v>16.61025659980969</v>
+        <v>16.52436061575427</v>
       </c>
       <c r="F8">
-        <v>69.60572207532614</v>
+        <v>68.92172794902098</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.850726766637685</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.57802877233604</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>75.33924506834086</v>
+        <v>15.45076805611301</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>74.80112196521928</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E9">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F9">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E10">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F10">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E11">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F11">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E12">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F12">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E13">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F13">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E14">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F14">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E15">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F15">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E16">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F16">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E17">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F17">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E18">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F18">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E19">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F19">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E20">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F20">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E21">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F21">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E22">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F22">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E23">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F23">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E24">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F24">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.106122459482366</v>
+        <v>8.100099865558231</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.824122856838276</v>
+        <v>9.547911868157877</v>
       </c>
       <c r="E25">
-        <v>21.14825717604058</v>
+        <v>20.97132214255587</v>
       </c>
       <c r="F25">
-        <v>92.05434296077792</v>
+        <v>90.72891264853514</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.698997645049237</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.15390283763546</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>93.58392449797608</v>
+        <v>19.92481402778324</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>92.72065625479522</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.300359539744259</v>
+        <v>19.93000724911194</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.118972154128844</v>
+        <v>9.062985756050367</v>
       </c>
       <c r="E2">
-        <v>17.07708510115889</v>
+        <v>48.12160381796319</v>
       </c>
       <c r="F2">
-        <v>71.52599966913719</v>
+        <v>65.41961799612079</v>
       </c>
       <c r="G2">
-        <v>1.83316569410413</v>
+        <v>1.927298847452592</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.9975579051062</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>77.09831590344596</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.22559412976309</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.38245526575016</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.923321925901307</v>
+        <v>18.70068382328079</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.217641561694373</v>
+        <v>8.431536852144607</v>
       </c>
       <c r="E3">
-        <v>15.49544864889527</v>
+        <v>44.57535508032016</v>
       </c>
       <c r="F3">
-        <v>64.16281576211678</v>
+        <v>60.01106170253951</v>
       </c>
       <c r="G3">
-        <v>1.882453736135081</v>
+        <v>1.959423629366111</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.43939857834873</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>70.47859377708416</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.14800379793262</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.0676947894347</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.688254100035978</v>
+        <v>17.93296140103941</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.699372956147295</v>
+        <v>8.063302256163091</v>
       </c>
       <c r="E4">
-        <v>14.54485406694272</v>
+        <v>42.35335894508267</v>
       </c>
       <c r="F4">
-        <v>59.87510491594853</v>
+        <v>56.72883404552744</v>
       </c>
       <c r="G4">
-        <v>1.910663167996073</v>
+        <v>1.978761629537433</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.51225846289655</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>66.43451411442857</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.46676551637584</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.23333021134093</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.591547017165444</v>
+        <v>17.6166374062126</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.493780231530574</v>
+        <v>7.917456655036463</v>
       </c>
       <c r="E5">
-        <v>14.15852232773059</v>
+        <v>41.4338586328659</v>
       </c>
       <c r="F5">
-        <v>58.16426769478077</v>
+        <v>55.45493115559195</v>
       </c>
       <c r="G5">
-        <v>1.92182815092558</v>
+        <v>1.986590210620013</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.13738383875396</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>64.77775740584738</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.18354514166973</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.88577505734719</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.575434391875177</v>
+        <v>17.56389927496515</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.459909535438612</v>
+        <v>7.893477630804416</v>
       </c>
       <c r="E6">
-        <v>14.09434431024819</v>
+        <v>41.28026095228978</v>
       </c>
       <c r="F6">
-        <v>57.88190698608261</v>
+        <v>55.24351768277207</v>
       </c>
       <c r="G6">
-        <v>1.923666222627431</v>
+        <v>1.987888144038011</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.07521480826857</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>64.50181651835824</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.1361606081501</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.82758958460281</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.686953552500658</v>
+        <v>17.9287095636789</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.696580892797614</v>
+        <v>8.061319018286129</v>
       </c>
       <c r="E7">
-        <v>14.53964391116624</v>
+        <v>42.34101819228052</v>
       </c>
       <c r="F7">
-        <v>59.85190700311433</v>
+        <v>56.7116439796911</v>
       </c>
       <c r="G7">
-        <v>1.91081488867228</v>
+        <v>1.978867365883123</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.50719551616821</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>66.41222047586741</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.46296941652776</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.22867436471577</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.171059910438099</v>
+        <v>19.50862113889739</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.798443999686856</v>
+        <v>8.840728712083754</v>
       </c>
       <c r="E8">
-        <v>16.52436061575427</v>
+        <v>46.90616611134652</v>
       </c>
       <c r="F8">
-        <v>68.92172794902098</v>
+        <v>63.54919852107619</v>
       </c>
       <c r="G8">
-        <v>1.850726766637685</v>
+        <v>1.938486837451366</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.45076805611301</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>74.80112196521928</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.85764256641272</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.93425483070829</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.100099865558231</v>
+        <v>22.85520463263391</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.547911868157877</v>
+        <v>10.77948580552517</v>
       </c>
       <c r="E9">
-        <v>20.97132214255587</v>
+        <v>55.68909759987668</v>
       </c>
       <c r="F9">
-        <v>90.72891264853514</v>
+        <v>77.42112650171831</v>
       </c>
       <c r="G9">
-        <v>1.698997645049237</v>
+        <v>1.853326805089039</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.48016497793733</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.10932363326862</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.100099865558231</v>
+        <v>25.38990041201593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.547911868157877</v>
+        <v>12.50091706800928</v>
       </c>
       <c r="E10">
-        <v>20.97132214255587</v>
+        <v>62.4695861488</v>
       </c>
       <c r="F10">
-        <v>90.72891264853514</v>
+        <v>88.63156518074258</v>
       </c>
       <c r="G10">
-        <v>1.698997645049237</v>
+        <v>1.780477613132881</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.43512793389127</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.43941464657171</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.100099865558231</v>
+        <v>26.57797650482036</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.547911868157877</v>
+        <v>13.38816959931014</v>
       </c>
       <c r="E11">
-        <v>20.97132214255587</v>
+        <v>65.83338253543347</v>
       </c>
       <c r="F11">
-        <v>90.72891264853514</v>
+        <v>94.32739897166795</v>
       </c>
       <c r="G11">
-        <v>1.698997645049237</v>
+        <v>1.741959476590461</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>19.3756989931797</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.54521416964805</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.100099865558231</v>
+        <v>27.04024016802734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.547911868157877</v>
+        <v>13.75099854618099</v>
       </c>
       <c r="E12">
-        <v>20.97132214255587</v>
+        <v>67.18608996430902</v>
       </c>
       <c r="F12">
-        <v>90.72891264853514</v>
+        <v>96.63937482968346</v>
       </c>
       <c r="G12">
-        <v>1.698997645049237</v>
+        <v>1.72602150736401</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>19.74746384952006</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.97893320042177</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.100099865558231</v>
+        <v>26.93993907490444</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.547911868157877</v>
+        <v>13.67134388378459</v>
       </c>
       <c r="E13">
-        <v>20.97132214255587</v>
+        <v>66.89020598850411</v>
       </c>
       <c r="F13">
-        <v>90.72891264853514</v>
+        <v>96.13269194885761</v>
       </c>
       <c r="G13">
-        <v>1.698997645049237</v>
+        <v>1.729529666184294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>19.66648461573929</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.88463469255114</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.100099865558231</v>
+        <v>26.61569287127256</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.547911868157877</v>
+        <v>13.41737270231403</v>
       </c>
       <c r="E14">
-        <v>20.97132214255587</v>
+        <v>65.9427321726445</v>
       </c>
       <c r="F14">
-        <v>90.72891264853514</v>
+        <v>94.5138625499799</v>
       </c>
       <c r="G14">
-        <v>1.698997645049237</v>
+        <v>1.740680645957894</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>19.40589674574887</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.5805199669973</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.100099865558231</v>
+        <v>26.41902182984037</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.547911868157877</v>
+        <v>13.26584231727718</v>
       </c>
       <c r="E15">
-        <v>20.97132214255587</v>
+        <v>65.37441500262383</v>
       </c>
       <c r="F15">
-        <v>90.72891264853514</v>
+        <v>93.54561959906495</v>
       </c>
       <c r="G15">
-        <v>1.698997645049237</v>
+        <v>1.747308704806162</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>19.24868047934567</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23.39656865245973</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.100099865558231</v>
+        <v>25.31345936593867</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.547911868157877</v>
+        <v>12.44582880951825</v>
       </c>
       <c r="E16">
-        <v>20.97132214255587</v>
+        <v>62.25798145700764</v>
       </c>
       <c r="F16">
-        <v>90.72891264853514</v>
+        <v>88.27600543951397</v>
       </c>
       <c r="G16">
-        <v>1.698997645049237</v>
+        <v>1.782847565839484</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>18.37524690855785</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>22.36863882057993</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.100099865558231</v>
+        <v>24.6478220229481</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.547911868157877</v>
+        <v>11.97524202508199</v>
       </c>
       <c r="E17">
-        <v>20.97132214255587</v>
+        <v>60.43653227936275</v>
       </c>
       <c r="F17">
-        <v>90.72891264853514</v>
+        <v>85.22984066568411</v>
       </c>
       <c r="G17">
-        <v>1.698997645049237</v>
+        <v>1.80298888858587</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>17.85658490110981</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.75390511075254</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.100099865558231</v>
+        <v>24.26764806211301</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.547911868157877</v>
+        <v>11.71337792610182</v>
       </c>
       <c r="E18">
-        <v>20.97132214255587</v>
+        <v>59.41190872155384</v>
       </c>
       <c r="F18">
-        <v>90.72891264853514</v>
+        <v>83.52803897656821</v>
       </c>
       <c r="G18">
-        <v>1.698997645049237</v>
+        <v>1.814116016891351</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>17.56239808280418</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.4039375821942</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.100099865558231</v>
+        <v>24.13924778330828</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.547911868157877</v>
+        <v>11.62600331618772</v>
       </c>
       <c r="E19">
-        <v>20.97132214255587</v>
+        <v>59.06821402096158</v>
       </c>
       <c r="F19">
-        <v>90.72891264853514</v>
+        <v>82.95915863078355</v>
       </c>
       <c r="G19">
-        <v>1.698997645049237</v>
+        <v>1.817815850967435</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.46334478115444</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.28590424738314</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.100099865558231</v>
+        <v>24.71836695312259</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.547911868157877</v>
+        <v>12.02436864341038</v>
       </c>
       <c r="E20">
-        <v>20.97132214255587</v>
+        <v>60.62786046249354</v>
       </c>
       <c r="F20">
-        <v>90.72891264853514</v>
+        <v>85.54857401590995</v>
       </c>
       <c r="G20">
-        <v>1.698997645049237</v>
+        <v>1.800894955798869</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.91132982723918</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.8189301924792</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.100099865558231</v>
+        <v>26.71050366489409</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.547911868157877</v>
+        <v>13.49108987526439</v>
       </c>
       <c r="E21">
-        <v>20.97132214255587</v>
+        <v>66.2183898335325</v>
       </c>
       <c r="F21">
-        <v>90.72891264853514</v>
+        <v>94.98425796711453</v>
       </c>
       <c r="G21">
-        <v>1.698997645049237</v>
+        <v>1.737449401474583</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>19.4819100660354</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23.66933307875306</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.100099865558231</v>
+        <v>28.09517275349631</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.547911868157877</v>
+        <v>14.62378749218173</v>
       </c>
       <c r="E22">
-        <v>20.97132214255587</v>
+        <v>70.39000048345278</v>
       </c>
       <c r="F22">
-        <v>90.72891264853514</v>
+        <v>102.1575369925002</v>
       </c>
       <c r="G22">
-        <v>1.698997645049237</v>
+        <v>1.687248954524564</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>20.61133064513263</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>24.97821933110452</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.100099865558231</v>
+        <v>27.34375203503942</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.547911868157877</v>
+        <v>13.99534935170224</v>
       </c>
       <c r="E23">
-        <v>20.97132214255587</v>
+        <v>68.09002830316879</v>
       </c>
       <c r="F23">
-        <v>90.72891264853514</v>
+        <v>98.19053961426731</v>
       </c>
       <c r="G23">
-        <v>1.698997645049237</v>
+        <v>1.715227808534364</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>19.99364439007907</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.26497667155546</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.100099865558231</v>
+        <v>24.6864662128114</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.547911868157877</v>
+        <v>12.00213216167225</v>
       </c>
       <c r="E24">
-        <v>20.97132214255587</v>
+        <v>60.54129304876129</v>
       </c>
       <c r="F24">
-        <v>90.72891264853514</v>
+        <v>85.40432468844477</v>
       </c>
       <c r="G24">
-        <v>1.698997645049237</v>
+        <v>1.801842997379991</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.88656768203624</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.78952210622525</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.100099865558231</v>
+        <v>21.92555685904056</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.547911868157877</v>
+        <v>10.19456427923835</v>
       </c>
       <c r="E25">
-        <v>20.97132214255587</v>
+        <v>53.29872933265395</v>
       </c>
       <c r="F25">
-        <v>90.72891264853514</v>
+        <v>73.56735624716535</v>
       </c>
       <c r="G25">
-        <v>1.698997645049237</v>
+        <v>1.877510610975226</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.92481402778324</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>92.72065625479522</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.7752949886838</v>
       </c>
       <c r="M25">
+        <v>19.26072686120913</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.93000724911194</v>
+        <v>7.221970538144867</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.062985756050367</v>
+        <v>6.248536220816471</v>
       </c>
       <c r="E2">
-        <v>48.12160381796319</v>
+        <v>8.866194978670123</v>
       </c>
       <c r="F2">
-        <v>65.41961799612079</v>
+        <v>23.57017450104348</v>
       </c>
       <c r="G2">
-        <v>1.927298847452592</v>
+        <v>2.101015249823248</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.975251947128556</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.70003069623142</v>
       </c>
       <c r="L2">
-        <v>14.22559412976309</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>17.38245526575016</v>
+        <v>13.02917173895028</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.96319773191098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.70068382328079</v>
+        <v>6.870068634138539</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.431536852144607</v>
+        <v>6.032341923301526</v>
       </c>
       <c r="E3">
-        <v>44.57535508032016</v>
+        <v>8.728821608067971</v>
       </c>
       <c r="F3">
-        <v>60.01106170253951</v>
+        <v>23.33519428237737</v>
       </c>
       <c r="G3">
-        <v>1.959423629366111</v>
+        <v>2.106503394741442</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.011056073036891</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.78801345687358</v>
       </c>
       <c r="L3">
-        <v>13.14800379793262</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>16.0676947894347</v>
+        <v>12.21750387248702</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.96740452571979</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.93296140103941</v>
+        <v>6.648052758423704</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.063302256163091</v>
+        <v>5.898020358403324</v>
       </c>
       <c r="E4">
-        <v>42.35335894508267</v>
+        <v>8.648473319385792</v>
       </c>
       <c r="F4">
-        <v>56.72883404552744</v>
+        <v>23.21254294117318</v>
       </c>
       <c r="G4">
-        <v>1.978761629537433</v>
+        <v>2.109976740843656</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.035678767400445</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.19886188289714</v>
       </c>
       <c r="L4">
-        <v>12.46676551637584</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.23333021134093</v>
+        <v>11.77555923034447</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.98645007264578</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.6166374062126</v>
+        <v>6.556212428573454</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.917456655036463</v>
+        <v>5.842964405242379</v>
       </c>
       <c r="E5">
-        <v>41.4338586328659</v>
+        <v>8.616752354916358</v>
       </c>
       <c r="F5">
-        <v>55.45493115559195</v>
+        <v>23.16787434448337</v>
       </c>
       <c r="G5">
-        <v>1.986590210620013</v>
+        <v>2.111418857665807</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.04636065164153</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.95151070092924</v>
       </c>
       <c r="L5">
-        <v>12.18354514166973</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.88577505734719</v>
+        <v>11.59423889626327</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.99818163938275</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.56389927496515</v>
+        <v>6.540883984492001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.893477630804416</v>
+        <v>5.833805553466891</v>
       </c>
       <c r="E6">
-        <v>41.28026095228978</v>
+        <v>8.611547232227863</v>
       </c>
       <c r="F6">
-        <v>55.24351768277207</v>
+        <v>23.16077408563256</v>
       </c>
       <c r="G6">
-        <v>1.987888144038011</v>
+        <v>2.111659951098168</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.04817306179537</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.91000176486499</v>
       </c>
       <c r="L6">
-        <v>12.1361606081501</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.82758958460281</v>
+        <v>11.56390043122759</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.0003644934527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.9287095636789</v>
+        <v>6.646819518667399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.061319018286129</v>
+        <v>5.897279037760994</v>
       </c>
       <c r="E7">
-        <v>42.34101819228052</v>
+        <v>8.648041363654418</v>
       </c>
       <c r="F7">
-        <v>56.7116439796911</v>
+        <v>23.21191918997003</v>
       </c>
       <c r="G7">
-        <v>1.978867365883123</v>
+        <v>2.109996080790779</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.035820223632668</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.19555533573178</v>
       </c>
       <c r="L7">
-        <v>12.46296941652776</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.22867436471577</v>
+        <v>11.77312945590325</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.98659243704442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.50862113889739</v>
+        <v>7.10193991596287</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.840728712083754</v>
+        <v>6.174364401925402</v>
       </c>
       <c r="E8">
-        <v>46.90616611134652</v>
+        <v>8.81800876628507</v>
       </c>
       <c r="F8">
-        <v>63.54919852107619</v>
+        <v>23.48459349637826</v>
       </c>
       <c r="G8">
-        <v>1.938486837451366</v>
+        <v>2.10288645941378</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.987039894848073</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.3916546700806</v>
       </c>
       <c r="L8">
-        <v>13.85764256641272</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.93425483070829</v>
+        <v>12.75500752923172</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.96112992114431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.85520463263391</v>
+        <v>7.942579599226002</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.77948580552517</v>
+        <v>6.702151827960091</v>
       </c>
       <c r="E9">
-        <v>55.68909759987668</v>
+        <v>9.182260055240235</v>
       </c>
       <c r="F9">
-        <v>77.42112650171831</v>
+        <v>24.19578532185827</v>
       </c>
       <c r="G9">
-        <v>1.853326805089039</v>
+        <v>2.08973555891808</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.91306020810576</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.50391558072184</v>
       </c>
       <c r="L9">
-        <v>16.48016497793733</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>20.10932363326862</v>
+        <v>14.62842071005244</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.04930863219841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.38990041201593</v>
+        <v>8.542347605239597</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.50091706800928</v>
+        <v>7.076849373017033</v>
       </c>
       <c r="E10">
-        <v>62.4695861488</v>
+        <v>9.467614259601831</v>
       </c>
       <c r="F10">
-        <v>88.63156518074258</v>
+        <v>24.83155688894598</v>
       </c>
       <c r="G10">
-        <v>1.780477613132881</v>
+        <v>2.080509991731184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.873006832621338</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.91243979212051</v>
       </c>
       <c r="L10">
-        <v>18.43512793389127</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>22.43941464657171</v>
+        <v>15.87329531225083</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.20834134762218</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57797650482036</v>
+        <v>8.85070975098626</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.38816959931014</v>
+        <v>7.243865366978364</v>
       </c>
       <c r="E11">
-        <v>65.83338253543347</v>
+        <v>9.601033899926779</v>
       </c>
       <c r="F11">
-        <v>94.32739897166795</v>
+        <v>25.14632877612978</v>
       </c>
       <c r="G11">
-        <v>1.741959476590461</v>
+        <v>2.07639695767242</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.858145621720134</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.52215018150785</v>
       </c>
       <c r="L11">
-        <v>19.3756989931797</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>23.54521416964805</v>
+        <v>16.41146273843507</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.30323352651509</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04024016802734</v>
+        <v>8.965092540374725</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.75099854618099</v>
+        <v>7.306574936659742</v>
       </c>
       <c r="E12">
-        <v>67.18608996430902</v>
+        <v>9.652055253859682</v>
       </c>
       <c r="F12">
-        <v>96.63937482968346</v>
+        <v>25.26926158507488</v>
       </c>
       <c r="G12">
-        <v>1.72602150736401</v>
+        <v>2.07485054133708</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.853023840663913</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.74858815330708</v>
       </c>
       <c r="L12">
-        <v>19.74746384952006</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>23.97893320042177</v>
+        <v>16.61124748677768</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.34257315246433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.93993907490444</v>
+        <v>8.940563854567843</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.67134388378459</v>
+        <v>7.29309372731803</v>
       </c>
       <c r="E13">
-        <v>66.89020598850411</v>
+        <v>9.641045052060647</v>
       </c>
       <c r="F13">
-        <v>96.13269194885761</v>
+        <v>25.24261878143846</v>
       </c>
       <c r="G13">
-        <v>1.729529666184294</v>
+        <v>2.075183111725571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.854104033439424</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.70001805606141</v>
       </c>
       <c r="L13">
-        <v>19.66648461573929</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>23.88463469255114</v>
+        <v>16.56839784106852</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.33394662390534</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.61569287127256</v>
+        <v>8.860167763927706</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.41737270231403</v>
+        <v>7.24903547270522</v>
       </c>
       <c r="E14">
-        <v>65.9427321726445</v>
+        <v>9.605221587227488</v>
       </c>
       <c r="F14">
-        <v>94.5138625499799</v>
+        <v>25.15636734673228</v>
       </c>
       <c r="G14">
-        <v>1.740680645957894</v>
+        <v>2.076269516213404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.857713976689303</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.54086834581956</v>
       </c>
       <c r="L14">
-        <v>19.40589674574887</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>23.5805199669973</v>
+        <v>16.42797923059191</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.30640083985164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.41902182984037</v>
+        <v>8.810612836401663</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.26584231727718</v>
+        <v>7.221977628376989</v>
       </c>
       <c r="E15">
-        <v>65.37441500262383</v>
+        <v>9.583342966262279</v>
       </c>
       <c r="F15">
-        <v>93.54561959906495</v>
+        <v>25.10402399505572</v>
       </c>
       <c r="G15">
-        <v>1.747308704806162</v>
+        <v>2.076936386950846</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.859991745184847</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.44280620150167</v>
       </c>
       <c r="L15">
-        <v>19.24868047934567</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>23.39656865245973</v>
+        <v>16.34144809343951</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.28997658830547</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.31345936593867</v>
+        <v>8.521859722467719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.44582880951825</v>
+        <v>7.065861624275172</v>
       </c>
       <c r="E16">
-        <v>62.25798145700764</v>
+        <v>9.45896580507949</v>
       </c>
       <c r="F16">
-        <v>88.27600543951397</v>
+        <v>24.81150542371459</v>
       </c>
       <c r="G16">
-        <v>1.782847565839484</v>
+        <v>2.080780394112445</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.874047561428312</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.87197047710254</v>
       </c>
       <c r="L16">
-        <v>18.37524690855785</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>22.36863882057993</v>
+        <v>15.83756181070512</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.20260774303349</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.6478220229481</v>
+        <v>8.357745246986315</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.97524202508199</v>
+        <v>6.969177632160931</v>
       </c>
       <c r="E17">
-        <v>60.43653227936275</v>
+        <v>9.383573903753865</v>
       </c>
       <c r="F17">
-        <v>85.22984066568411</v>
+        <v>24.63864605570608</v>
       </c>
       <c r="G17">
-        <v>1.80298888858587</v>
+        <v>2.083159363561734</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.883546525870017</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.5138411126614</v>
       </c>
       <c r="L17">
-        <v>17.85658490110981</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>21.75390511075254</v>
+        <v>15.52126358067761</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.15490279818459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.26764806211301</v>
+        <v>8.271262490460069</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.71337792610182</v>
+        <v>6.913246204898465</v>
       </c>
       <c r="E18">
-        <v>59.41190872155384</v>
+        <v>9.340551520822013</v>
       </c>
       <c r="F18">
-        <v>83.52803897656821</v>
+        <v>24.541624378927</v>
       </c>
       <c r="G18">
-        <v>1.814116016891351</v>
+        <v>2.084535624157268</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.88932482708422</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.30493178670532</v>
       </c>
       <c r="L18">
-        <v>17.56239808280418</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>21.4039375821942</v>
+        <v>15.33668661264586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.12957695940939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.13924778330828</v>
+        <v>8.24184232964592</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.62600331618772</v>
+        <v>6.894254977077181</v>
       </c>
       <c r="E19">
-        <v>59.06821402096158</v>
+        <v>9.326044114966839</v>
       </c>
       <c r="F19">
-        <v>82.95915863078355</v>
+        <v>24.50918515067606</v>
       </c>
       <c r="G19">
-        <v>1.817815850967435</v>
+        <v>2.08500299366031</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.891334646583093</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.2336963506457</v>
       </c>
       <c r="L19">
-        <v>17.46334478115444</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>21.28590424738314</v>
+        <v>15.27373572501444</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.12135986692503</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.71836695312259</v>
+        <v>8.373685043485992</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.02436864341038</v>
+        <v>6.979503391066047</v>
       </c>
       <c r="E20">
-        <v>60.62786046249354</v>
+        <v>9.391564359562379</v>
       </c>
       <c r="F20">
-        <v>85.54857401590995</v>
+        <v>24.65679812108759</v>
       </c>
       <c r="G20">
-        <v>1.800894955798869</v>
+        <v>2.082905303007844</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.882502608926417</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.55226700447639</v>
       </c>
       <c r="L20">
-        <v>17.91132982723918</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>21.8189301924792</v>
+        <v>15.55520813792701</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.15976120382855</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71050366489409</v>
+        <v>8.883846594465775</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.49108987526439</v>
+        <v>7.261991288469925</v>
       </c>
       <c r="E21">
-        <v>66.2183898335325</v>
+        <v>9.615730445505164</v>
       </c>
       <c r="F21">
-        <v>94.98425796711453</v>
+        <v>25.18159965755004</v>
       </c>
       <c r="G21">
-        <v>1.737449401474583</v>
+        <v>2.075950119427571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.856639732325227</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.58773495787323</v>
       </c>
       <c r="L21">
-        <v>19.4819100660354</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>23.66933307875306</v>
+        <v>16.46933201472697</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.31439798645843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09517275349631</v>
+        <v>9.212367801400829</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.62378749218173</v>
+        <v>7.443476122557257</v>
       </c>
       <c r="E22">
-        <v>70.39000048345278</v>
+        <v>9.765131426550246</v>
       </c>
       <c r="F22">
-        <v>102.1575369925002</v>
+        <v>25.54638465626471</v>
       </c>
       <c r="G22">
-        <v>1.687248954524564</v>
+        <v>2.0714687224443</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.84269680513653</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.23857233547497</v>
       </c>
       <c r="L22">
-        <v>20.61133064513263</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>24.97821933110452</v>
+        <v>17.04342715405829</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.43538725391983</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34375203503942</v>
+        <v>9.038291756664956</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.99534935170224</v>
+        <v>7.346913313938392</v>
       </c>
       <c r="E23">
-        <v>68.09002830316879</v>
+        <v>9.685134906485624</v>
       </c>
       <c r="F23">
-        <v>98.19053961426731</v>
+        <v>25.34967943493809</v>
       </c>
       <c r="G23">
-        <v>1.715227808534364</v>
+        <v>2.07385498008858</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.849859689334331</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.8935700628832</v>
       </c>
       <c r="L23">
-        <v>19.99364439007907</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>24.26497667155546</v>
+        <v>16.73914319694165</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.368937081298</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.6864662128114</v>
+        <v>8.366481321123896</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.00213216167225</v>
+        <v>6.97483619153101</v>
       </c>
       <c r="E24">
-        <v>60.54129304876129</v>
+        <v>9.387950871710274</v>
       </c>
       <c r="F24">
-        <v>85.40432468844477</v>
+        <v>24.64858423397114</v>
       </c>
       <c r="G24">
-        <v>1.801842997379991</v>
+        <v>2.083020137053232</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.882973577414387</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.53490405404413</v>
       </c>
       <c r="L24">
-        <v>17.88656768203624</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>21.78952210622525</v>
+        <v>15.53987031877042</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.15755818892062</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92555685904056</v>
+        <v>7.721295091412742</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.19456427923835</v>
+        <v>6.56143605949431</v>
       </c>
       <c r="E25">
-        <v>53.29872933265395</v>
+        <v>9.080520453743453</v>
       </c>
       <c r="F25">
-        <v>73.56735624716535</v>
+        <v>23.98385730904848</v>
       </c>
       <c r="G25">
-        <v>1.877510610975226</v>
+        <v>2.093213107778418</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.930644837440147</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.95764571863522</v>
       </c>
       <c r="L25">
-        <v>15.7752949886838</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>19.26072686120913</v>
+        <v>14.14482131902702</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.00961870051017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.221970538144867</v>
+        <v>7.83870406380029</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.248536220816471</v>
+        <v>8.893515367309677</v>
       </c>
       <c r="E2">
-        <v>8.866194978670123</v>
+        <v>13.67117341556229</v>
       </c>
       <c r="F2">
-        <v>23.57017450104348</v>
+        <v>34.53481326657113</v>
       </c>
       <c r="G2">
-        <v>2.101015249823248</v>
+        <v>3.667112050585561</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.975251947128556</v>
+        <v>10.23893682429091</v>
       </c>
       <c r="K2">
-        <v>15.70003069623142</v>
+        <v>11.0324791635777</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.02917173895028</v>
+        <v>15.45962279084162</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.96319773191098</v>
+        <v>26.17731385551513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.870068634138539</v>
+        <v>7.76919519555176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.032341923301526</v>
+        <v>8.870513336643558</v>
       </c>
       <c r="E3">
-        <v>8.728821608067971</v>
+        <v>13.6833507156601</v>
       </c>
       <c r="F3">
-        <v>23.33519428237737</v>
+        <v>34.62120944210999</v>
       </c>
       <c r="G3">
-        <v>2.106503394741442</v>
+        <v>3.669182108272986</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.011056073036891</v>
+        <v>10.26554340961156</v>
       </c>
       <c r="K3">
-        <v>14.78801345687358</v>
+        <v>10.6798326832802</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.21750387248702</v>
+        <v>15.32734605329021</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.96740452571979</v>
+        <v>26.27123239826054</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.648052758423704</v>
+        <v>7.728061420991882</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.898020358403324</v>
+        <v>8.857608266166796</v>
       </c>
       <c r="E4">
-        <v>8.648473319385792</v>
+        <v>13.6931147846978</v>
       </c>
       <c r="F4">
-        <v>23.21254294117318</v>
+        <v>34.68275544210056</v>
       </c>
       <c r="G4">
-        <v>2.109976740843656</v>
+        <v>3.670520768706877</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.035678767400445</v>
+        <v>10.28309531660535</v>
       </c>
       <c r="K4">
-        <v>14.19886188289714</v>
+        <v>10.45805721172665</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.77555923034447</v>
+        <v>15.24755896922338</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.98645007264578</v>
+        <v>26.33482668801035</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.556212428573454</v>
+        <v>7.711705845019362</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.842964405242379</v>
+        <v>8.852659228893371</v>
       </c>
       <c r="E5">
-        <v>8.616752354916358</v>
+        <v>13.69766918126728</v>
       </c>
       <c r="F5">
-        <v>23.16787434448337</v>
+        <v>34.70996740789044</v>
       </c>
       <c r="G5">
-        <v>2.111418857665807</v>
+        <v>3.671083345492721</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.04636065164153</v>
+        <v>10.29055380660896</v>
       </c>
       <c r="K5">
-        <v>13.95151070092924</v>
+        <v>10.36649090765778</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.59423889626327</v>
+        <v>15.21543278662956</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.99818163938275</v>
+        <v>26.36222901546017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.540883984492001</v>
+        <v>7.709015101416443</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.833805553466891</v>
+        <v>8.851856259924409</v>
       </c>
       <c r="E6">
-        <v>8.611547232227863</v>
+        <v>13.69846019853332</v>
       </c>
       <c r="F6">
-        <v>23.16077408563256</v>
+        <v>34.71461449891133</v>
       </c>
       <c r="G6">
-        <v>2.111659951098168</v>
+        <v>3.671177793018511</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.04817306179537</v>
+        <v>10.2918107713986</v>
       </c>
       <c r="K6">
-        <v>13.91000176486499</v>
+        <v>10.35121843728223</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.56390043122759</v>
+        <v>15.21012247315819</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.0003644934527</v>
+        <v>26.36686886672091</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.646819518667399</v>
+        <v>7.727839173376633</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.897279037760994</v>
+        <v>8.857540262508405</v>
       </c>
       <c r="E7">
-        <v>8.648041363654418</v>
+        <v>13.69317387653407</v>
       </c>
       <c r="F7">
-        <v>23.21191918997003</v>
+        <v>34.68311380962412</v>
       </c>
       <c r="G7">
-        <v>2.109996080790779</v>
+        <v>3.670528286659484</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.035820223632668</v>
+        <v>10.28319466520414</v>
       </c>
       <c r="K7">
-        <v>14.19555533573178</v>
+        <v>10.45682696060068</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.77312945590325</v>
+        <v>15.24712409831204</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.98659243704442</v>
+        <v>26.33519022872217</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.10193991596287</v>
+        <v>7.814427942580493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.174364401925402</v>
+        <v>8.885333608738563</v>
       </c>
       <c r="E8">
-        <v>8.81800876628507</v>
+        <v>13.67489769122509</v>
       </c>
       <c r="F8">
-        <v>23.48459349637826</v>
+        <v>34.56283564686009</v>
       </c>
       <c r="G8">
-        <v>2.10288645941378</v>
+        <v>3.667811801053773</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.987039894848073</v>
+        <v>10.24785872906435</v>
       </c>
       <c r="K8">
-        <v>15.3916546700806</v>
+        <v>10.91205013658836</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.75500752923172</v>
+        <v>15.41373354376206</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.96112992114431</v>
+        <v>26.20846456199538</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.942579599226002</v>
+        <v>7.995649853199052</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.702151827960091</v>
+        <v>8.949337693630181</v>
       </c>
       <c r="E9">
-        <v>9.182260055240235</v>
+        <v>13.65718634129965</v>
       </c>
       <c r="F9">
-        <v>24.19578532185827</v>
+        <v>34.39462919560734</v>
       </c>
       <c r="G9">
-        <v>2.08973555891808</v>
+        <v>3.663018982600109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.91306020810576</v>
+        <v>10.18819340132176</v>
       </c>
       <c r="K9">
-        <v>17.50391558072184</v>
+        <v>11.75797394293683</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.62842071005244</v>
+        <v>15.75056498986559</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.04930863219841</v>
+        <v>26.00714357662969</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.542347605239597</v>
+        <v>8.13459649917764</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.076849373017033</v>
+        <v>9.001919277900175</v>
       </c>
       <c r="E10">
-        <v>9.467614259601831</v>
+        <v>13.65519218700706</v>
       </c>
       <c r="F10">
-        <v>24.83155688894598</v>
+        <v>34.31257670598893</v>
       </c>
       <c r="G10">
-        <v>2.080509991731184</v>
+        <v>3.659819911460328</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.873006832621338</v>
+        <v>10.15020642698078</v>
       </c>
       <c r="K10">
-        <v>18.91243979212051</v>
+        <v>12.34486230539351</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.87329531225083</v>
+        <v>16.00250143485905</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.20834134762218</v>
+        <v>25.88820252024718</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.85070975098626</v>
+        <v>8.198812470240417</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.243865366978364</v>
+        <v>9.026992259225084</v>
       </c>
       <c r="E11">
-        <v>9.601033899926779</v>
+        <v>13.65666725036266</v>
       </c>
       <c r="F11">
-        <v>25.14632877612978</v>
+        <v>34.28431553134739</v>
       </c>
       <c r="G11">
-        <v>2.07639695767242</v>
+        <v>3.658433802429006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.858145621720134</v>
+        <v>10.13419094703959</v>
       </c>
       <c r="K11">
-        <v>19.52215018150785</v>
+        <v>12.60325394291352</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.41146273843507</v>
+        <v>16.11771770698495</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.30323352651509</v>
+        <v>25.84042472247657</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.965092540374725</v>
+        <v>8.223252808112653</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.306574936659742</v>
+        <v>9.036647621785637</v>
       </c>
       <c r="E12">
-        <v>9.652055253859682</v>
+        <v>13.65756718856999</v>
       </c>
       <c r="F12">
-        <v>25.26926158507488</v>
+        <v>34.27492027314914</v>
       </c>
       <c r="G12">
-        <v>2.07485054133708</v>
+        <v>3.657918809125714</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.853023840663913</v>
+        <v>10.1283078860968</v>
       </c>
       <c r="K12">
-        <v>19.74858815330708</v>
+        <v>12.69978796101947</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.61124748677768</v>
+        <v>16.16140386658203</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.34257315246433</v>
+        <v>25.82324583331905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.940563854567843</v>
+        <v>8.217984015319232</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.29309372731803</v>
+        <v>9.034561099483016</v>
       </c>
       <c r="E13">
-        <v>9.641045052060647</v>
+        <v>13.65735820944821</v>
       </c>
       <c r="F13">
-        <v>25.24261878143846</v>
+        <v>34.27688555448655</v>
       </c>
       <c r="G13">
-        <v>2.075183111725571</v>
+        <v>3.65802928280228</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.854104033439424</v>
+        <v>10.12956683338172</v>
       </c>
       <c r="K13">
-        <v>19.70001805606141</v>
+        <v>12.67905719732851</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.56839784106852</v>
+        <v>16.15199326532808</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.33394662390534</v>
+        <v>25.82690493244106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.860167763927706</v>
+        <v>8.200820848809537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.24903547270522</v>
+        <v>9.027783419479091</v>
       </c>
       <c r="E14">
-        <v>9.605221587227488</v>
+        <v>13.65673445485802</v>
       </c>
       <c r="F14">
-        <v>25.15636734673228</v>
+        <v>34.28351637536056</v>
       </c>
       <c r="G14">
-        <v>2.076269516213404</v>
+        <v>3.658391235570034</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.857713976689303</v>
+        <v>10.13370330488442</v>
       </c>
       <c r="K14">
-        <v>19.54086834581956</v>
+        <v>12.61122259292452</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.42797923059191</v>
+        <v>16.12131084496996</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.30640083985164</v>
+        <v>25.83899307750348</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.810612836401663</v>
+        <v>8.190323301621056</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.221977628376989</v>
+        <v>9.02365267740452</v>
       </c>
       <c r="E15">
-        <v>9.583342966262279</v>
+        <v>13.65639680430175</v>
       </c>
       <c r="F15">
-        <v>25.10402399505572</v>
+        <v>34.28774818841591</v>
       </c>
       <c r="G15">
-        <v>2.076936386950846</v>
+        <v>3.658614229389456</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.859991745184847</v>
+        <v>10.1362606624314</v>
       </c>
       <c r="K15">
-        <v>19.44280620150167</v>
+        <v>12.56949873278783</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.34144809343951</v>
+        <v>16.10252337603888</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.28997658830547</v>
+        <v>25.84651648211063</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.521859722467719</v>
+        <v>8.130418257782166</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.065861624275172</v>
+        <v>9.00030347815135</v>
       </c>
       <c r="E16">
-        <v>9.45896580507949</v>
+        <v>13.65514362618892</v>
       </c>
       <c r="F16">
-        <v>24.81150542371459</v>
+        <v>34.31460633014359</v>
       </c>
       <c r="G16">
-        <v>2.080780394112445</v>
+        <v>3.65991188445757</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.874047561428312</v>
+        <v>10.15127850960055</v>
       </c>
       <c r="K16">
-        <v>18.87197047710254</v>
+        <v>12.32779609792502</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.83756181070512</v>
+        <v>15.99498135563606</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.20260774303349</v>
+        <v>25.8914525640655</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.357745246986315</v>
+        <v>8.09391118965552</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.969177632160931</v>
+        <v>8.986271350235215</v>
       </c>
       <c r="E17">
-        <v>9.383573903753865</v>
+        <v>13.6549841892435</v>
       </c>
       <c r="F17">
-        <v>24.63864605570608</v>
+        <v>34.33340708962015</v>
       </c>
       <c r="G17">
-        <v>2.083159363561734</v>
+        <v>3.660725633033131</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.883546525870017</v>
+        <v>10.1608152870522</v>
       </c>
       <c r="K17">
-        <v>18.5138411126614</v>
+        <v>12.17726132218469</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.52126358067761</v>
+        <v>15.92914148265765</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.15490279818459</v>
+        <v>25.92064289947328</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.271262490460069</v>
+        <v>8.073009523177735</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.913246204898465</v>
+        <v>8.978309317821994</v>
       </c>
       <c r="E18">
-        <v>9.340551520822013</v>
+        <v>13.65511679328071</v>
       </c>
       <c r="F18">
-        <v>24.541624378927</v>
+        <v>34.34507387581444</v>
       </c>
       <c r="G18">
-        <v>2.084535624157268</v>
+        <v>3.661200192722053</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.88932482708422</v>
+        <v>10.16641967035041</v>
       </c>
       <c r="K18">
-        <v>18.30493178670532</v>
+        <v>12.08987356621766</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.33668661264586</v>
+        <v>15.89133133188589</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.12957695940939</v>
+        <v>25.93802793685797</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.24184232964592</v>
+        <v>8.065949772242542</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.894254977077181</v>
+        <v>8.975632361656004</v>
       </c>
       <c r="E19">
-        <v>9.326044114966839</v>
+        <v>13.65520024938658</v>
       </c>
       <c r="F19">
-        <v>24.50918515067606</v>
+        <v>34.34917046232413</v>
       </c>
       <c r="G19">
-        <v>2.08500299366031</v>
+        <v>3.661361990618241</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.891334646583093</v>
+        <v>10.16833767819128</v>
       </c>
       <c r="K19">
-        <v>18.2336963506457</v>
+        <v>12.06015000335666</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.27373572501444</v>
+        <v>15.87854058971736</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.12135986692503</v>
+        <v>25.94401638807025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.373685043485992</v>
+        <v>8.097787627963745</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.979503391066047</v>
+        <v>8.987753862096467</v>
       </c>
       <c r="E20">
-        <v>9.391564359562379</v>
+        <v>13.65497795465467</v>
       </c>
       <c r="F20">
-        <v>24.65679812108759</v>
+        <v>34.33131740080418</v>
       </c>
       <c r="G20">
-        <v>2.082905303007844</v>
+        <v>3.660638334394288</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.882502608926417</v>
+        <v>10.15978775817476</v>
       </c>
       <c r="K20">
-        <v>18.55226700447639</v>
+        <v>12.19336982818066</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.55520813792701</v>
+        <v>15.9361443497352</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.15976120382855</v>
+        <v>25.91747387826112</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.883846594465775</v>
+        <v>8.20585891903171</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.261991288469925</v>
+        <v>9.029769866651357</v>
       </c>
       <c r="E21">
-        <v>9.615730445505164</v>
+        <v>13.65690841259067</v>
       </c>
       <c r="F21">
-        <v>25.18159965755004</v>
+        <v>34.2815332592369</v>
       </c>
       <c r="G21">
-        <v>2.075950119427571</v>
+        <v>3.658284653084513</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.856639732325227</v>
+        <v>10.13248339488104</v>
       </c>
       <c r="K21">
-        <v>19.58773495787323</v>
+        <v>12.6311834842987</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.46933201472697</v>
+        <v>16.13032173757779</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.31439798645843</v>
+        <v>25.83541767700594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.212367801400829</v>
+        <v>8.277197415582771</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.443476122557257</v>
+        <v>9.058164344194907</v>
       </c>
       <c r="E22">
-        <v>9.765131426550246</v>
+        <v>13.66015912825919</v>
       </c>
       <c r="F22">
-        <v>25.54638465626471</v>
+        <v>34.25661349827761</v>
       </c>
       <c r="G22">
-        <v>2.0714687224443</v>
+        <v>3.656804045589646</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.84269680513653</v>
+        <v>10.11569711797697</v>
       </c>
       <c r="K22">
-        <v>20.23857233547497</v>
+        <v>12.90963491651909</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.04342715405829</v>
+        <v>16.25754141945871</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.43538725391983</v>
+        <v>25.78711540879822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.038291756664956</v>
+        <v>8.23906518359375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.346913313938392</v>
+        <v>9.042925891233251</v>
       </c>
       <c r="E23">
-        <v>9.685134906485624</v>
+        <v>13.6582426025236</v>
       </c>
       <c r="F23">
-        <v>25.34967943493809</v>
+        <v>34.26921582280124</v>
       </c>
       <c r="G23">
-        <v>2.07385498008858</v>
+        <v>3.657589014152829</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.849859689334331</v>
+        <v>10.12455948030338</v>
       </c>
       <c r="K23">
-        <v>19.8935700628832</v>
+        <v>12.76174699654819</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.73914319694165</v>
+        <v>16.18962349143048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.368937081298</v>
+        <v>25.81240680282772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.366481321123896</v>
+        <v>8.096034818383515</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.97483619153101</v>
+        <v>8.987083290350164</v>
       </c>
       <c r="E24">
-        <v>9.387950871710274</v>
+        <v>13.65498007466366</v>
       </c>
       <c r="F24">
-        <v>24.64858423397114</v>
+        <v>34.33225947678131</v>
       </c>
       <c r="G24">
-        <v>2.083020137053232</v>
+        <v>3.660677781158078</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.882973577414387</v>
+        <v>10.16025192530041</v>
       </c>
       <c r="K24">
-        <v>18.53490405404413</v>
+        <v>12.18608979328261</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.53987031877042</v>
+        <v>15.932978220093</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.15755818892062</v>
+        <v>25.91890471427925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.721295091412742</v>
+        <v>7.945519820309974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.56143605949431</v>
+        <v>8.93102899146162</v>
       </c>
       <c r="E25">
-        <v>9.080520453743453</v>
+        <v>13.66003974150889</v>
       </c>
       <c r="F25">
-        <v>23.98385730904848</v>
+        <v>34.43285881890529</v>
       </c>
       <c r="G25">
-        <v>2.093213107778418</v>
+        <v>3.664258735200466</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.930644837440147</v>
+        <v>10.20330580934919</v>
       </c>
       <c r="K25">
-        <v>16.95764571863522</v>
+        <v>11.53480656691877</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.14482131902702</v>
+        <v>15.65853474622108</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.00961870051017</v>
+        <v>26.05653308694428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.83870406380029</v>
+        <v>7.221970538144874</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.893515367309677</v>
+        <v>6.248536220816396</v>
       </c>
       <c r="E2">
-        <v>13.67117341556229</v>
+        <v>8.866194978670254</v>
       </c>
       <c r="F2">
-        <v>34.53481326657113</v>
+        <v>23.57017450104309</v>
       </c>
       <c r="G2">
-        <v>3.667112050585561</v>
+        <v>2.101015249823648</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.23893682429091</v>
+        <v>5.975251947128736</v>
       </c>
       <c r="K2">
-        <v>11.0324791635777</v>
+        <v>15.70003069623155</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.45962279084162</v>
+        <v>13.02917173895031</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.17731385551513</v>
+        <v>16.96319773191068</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.76919519555176</v>
+        <v>6.870068634138472</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.870513336643558</v>
+        <v>6.032341923301632</v>
       </c>
       <c r="E3">
-        <v>13.6833507156601</v>
+        <v>8.728821608067983</v>
       </c>
       <c r="F3">
-        <v>34.62120944210999</v>
+        <v>23.33519428237715</v>
       </c>
       <c r="G3">
-        <v>3.669182108272986</v>
+        <v>2.106503394741306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.26554340961156</v>
+        <v>6.011056073036863</v>
       </c>
       <c r="K3">
-        <v>10.6798326832802</v>
+        <v>14.78801345687368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.32734605329021</v>
+        <v>12.21750387248708</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.27123239826054</v>
+        <v>16.96740452571959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.728061420991882</v>
+        <v>6.648052758423725</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.857608266166796</v>
+        <v>5.898020358403358</v>
       </c>
       <c r="E4">
-        <v>13.6931147846978</v>
+        <v>8.64847331938584</v>
       </c>
       <c r="F4">
-        <v>34.68275544210056</v>
+        <v>23.21254294117314</v>
       </c>
       <c r="G4">
-        <v>3.670520768706877</v>
+        <v>2.109976740843655</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.28309531660535</v>
+        <v>6.035678767400445</v>
       </c>
       <c r="K4">
-        <v>10.45805721172665</v>
+        <v>14.19886188289721</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.24755896922338</v>
+        <v>11.77555923034446</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.33482668801035</v>
+        <v>16.98645007264571</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.711705845019362</v>
+        <v>6.55621242857347</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.852659228893371</v>
+        <v>5.842964405242372</v>
       </c>
       <c r="E5">
-        <v>13.69766918126728</v>
+        <v>8.616752354916356</v>
       </c>
       <c r="F5">
-        <v>34.70996740789044</v>
+        <v>23.16787434448326</v>
       </c>
       <c r="G5">
-        <v>3.671083345492721</v>
+        <v>2.111418857665807</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.29055380660896</v>
+        <v>6.046360651641531</v>
       </c>
       <c r="K5">
-        <v>10.36649090765778</v>
+        <v>13.95151070092932</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.21543278662956</v>
+        <v>11.59423889626326</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.36222901546017</v>
+        <v>16.99818163938263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.709015101416443</v>
+        <v>6.540883984492009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.851856259924409</v>
+        <v>5.833805553466977</v>
       </c>
       <c r="E6">
-        <v>13.69846019853332</v>
+        <v>8.611547232227961</v>
       </c>
       <c r="F6">
-        <v>34.71461449891133</v>
+        <v>23.16077408563258</v>
       </c>
       <c r="G6">
-        <v>3.671177793018511</v>
+        <v>2.111659951098302</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.2918107713986</v>
+        <v>6.048173061795424</v>
       </c>
       <c r="K6">
-        <v>10.35121843728223</v>
+        <v>13.91000176486503</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.21012247315819</v>
+        <v>11.56390043122759</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.36686886672091</v>
+        <v>17.00036449345269</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.727839173376633</v>
+        <v>6.646819518667304</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.857540262508405</v>
+        <v>5.897279037760996</v>
       </c>
       <c r="E7">
-        <v>13.69317387653407</v>
+        <v>8.648041363654434</v>
       </c>
       <c r="F7">
-        <v>34.68311380962412</v>
+        <v>23.21191918996983</v>
       </c>
       <c r="G7">
-        <v>3.670528286659484</v>
+        <v>2.109996080790379</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.28319466520414</v>
+        <v>6.035820223632766</v>
       </c>
       <c r="K7">
-        <v>10.45682696060068</v>
+        <v>14.19555533573181</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.24712409831204</v>
+        <v>11.77312945590324</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.33519022872217</v>
+        <v>16.98659243704427</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.814427942580493</v>
+        <v>7.101939915962887</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.885333608738563</v>
+        <v>6.174364401925331</v>
       </c>
       <c r="E8">
-        <v>13.67489769122509</v>
+        <v>8.818008766285116</v>
       </c>
       <c r="F8">
-        <v>34.56283564686009</v>
+        <v>23.48459349637807</v>
       </c>
       <c r="G8">
-        <v>3.667811801053773</v>
+        <v>2.102886459413513</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.24785872906435</v>
+        <v>5.987039894848134</v>
       </c>
       <c r="K8">
-        <v>10.91205013658836</v>
+        <v>15.39165467008067</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.41373354376206</v>
+        <v>12.75500752923174</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.20846456199538</v>
+        <v>16.9611299211442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.995649853199052</v>
+        <v>7.942579599225994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.949337693630181</v>
+        <v>6.702151827960106</v>
       </c>
       <c r="E9">
-        <v>13.65718634129965</v>
+        <v>9.182260055240251</v>
       </c>
       <c r="F9">
-        <v>34.39462919560734</v>
+        <v>24.19578532185816</v>
       </c>
       <c r="G9">
-        <v>3.663018982600109</v>
+        <v>2.089735558918081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.18819340132176</v>
+        <v>5.913060208105758</v>
       </c>
       <c r="K9">
-        <v>11.75797394293683</v>
+        <v>17.50391558072183</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.75056498986559</v>
+        <v>14.62842071005245</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.00714357662969</v>
+        <v>17.04930863219828</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.13459649917764</v>
+        <v>8.542347605239625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.001919277900175</v>
+        <v>7.076849373017012</v>
       </c>
       <c r="E10">
-        <v>13.65519218700706</v>
+        <v>9.467614259601769</v>
       </c>
       <c r="F10">
-        <v>34.31257670598893</v>
+        <v>24.83155688894581</v>
       </c>
       <c r="G10">
-        <v>3.659819911460328</v>
+        <v>2.08050999173105</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.15020642698078</v>
+        <v>5.873006832621341</v>
       </c>
       <c r="K10">
-        <v>12.34486230539351</v>
+        <v>18.91243979212053</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.00250143485905</v>
+        <v>15.87329531225084</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.88820252024718</v>
+        <v>17.20834134762204</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.198812470240417</v>
+        <v>8.850709750986226</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.026992259225084</v>
+        <v>7.243865366978437</v>
       </c>
       <c r="E11">
-        <v>13.65666725036266</v>
+        <v>9.601033899926827</v>
       </c>
       <c r="F11">
-        <v>34.28431553134739</v>
+        <v>25.14632877612977</v>
       </c>
       <c r="G11">
-        <v>3.658433802429006</v>
+        <v>2.076396957672553</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.13419094703959</v>
+        <v>5.858145621720137</v>
       </c>
       <c r="K11">
-        <v>12.60325394291352</v>
+        <v>19.52215018150782</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.11771770698495</v>
+        <v>16.41146273843506</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.84042472247657</v>
+        <v>17.30323352651504</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.223252808112653</v>
+        <v>8.965092540374688</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.036647621785637</v>
+        <v>7.306574936659876</v>
       </c>
       <c r="E12">
-        <v>13.65756718856999</v>
+        <v>9.652055253859686</v>
       </c>
       <c r="F12">
-        <v>34.27492027314914</v>
+        <v>25.26926158507484</v>
       </c>
       <c r="G12">
-        <v>3.657918809125714</v>
+        <v>2.074850541337213</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.1283078860968</v>
+        <v>5.853023840663861</v>
       </c>
       <c r="K12">
-        <v>12.69978796101947</v>
+        <v>19.74858815330713</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.16140386658203</v>
+        <v>16.6112474867777</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.82324583331905</v>
+        <v>17.34257315246423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.217984015319232</v>
+        <v>8.940563854567896</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.034561099483016</v>
+        <v>7.293093727317947</v>
       </c>
       <c r="E13">
-        <v>13.65735820944821</v>
+        <v>9.641045052060605</v>
       </c>
       <c r="F13">
-        <v>34.27688555448655</v>
+        <v>25.2426187814383</v>
       </c>
       <c r="G13">
-        <v>3.65802928280228</v>
+        <v>2.075183111725706</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.12956683338172</v>
+        <v>5.854104033439407</v>
       </c>
       <c r="K13">
-        <v>12.67905719732851</v>
+        <v>19.70001805606151</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.15199326532808</v>
+        <v>16.56839784106864</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.82690493244106</v>
+        <v>17.3339466239052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.200820848809537</v>
+        <v>8.86016776392772</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.027783419479091</v>
+        <v>7.249035472705303</v>
       </c>
       <c r="E14">
-        <v>13.65673445485802</v>
+        <v>9.605221587227566</v>
       </c>
       <c r="F14">
-        <v>34.28351637536056</v>
+        <v>25.15636734673232</v>
       </c>
       <c r="G14">
-        <v>3.658391235570034</v>
+        <v>2.076269516213272</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.13370330488442</v>
+        <v>5.857713976689278</v>
       </c>
       <c r="K14">
-        <v>12.61122259292452</v>
+        <v>19.54086834581964</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.12131084496996</v>
+        <v>16.42797923059192</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.83899307750348</v>
+        <v>17.30640083985162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.190323301621056</v>
+        <v>8.810612836401695</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.02365267740452</v>
+        <v>7.221977628377021</v>
       </c>
       <c r="E15">
-        <v>13.65639680430175</v>
+        <v>9.583342966262219</v>
       </c>
       <c r="F15">
-        <v>34.28774818841591</v>
+        <v>25.10402399505556</v>
       </c>
       <c r="G15">
-        <v>3.658614229389456</v>
+        <v>2.076936386950848</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.1362606624314</v>
+        <v>5.859991745184841</v>
       </c>
       <c r="K15">
-        <v>12.56949873278783</v>
+        <v>19.44280620150172</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.10252337603888</v>
+        <v>16.34144809343953</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.84651648211063</v>
+        <v>17.28997658830534</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.130418257782166</v>
+        <v>8.521859722467779</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.00030347815135</v>
+        <v>7.065861624275231</v>
       </c>
       <c r="E16">
-        <v>13.65514362618892</v>
+        <v>9.458965805079512</v>
       </c>
       <c r="F16">
-        <v>34.31460633014359</v>
+        <v>24.81150542371453</v>
       </c>
       <c r="G16">
-        <v>3.65991188445757</v>
+        <v>2.080780394112044</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.15127850960055</v>
+        <v>5.874047561428348</v>
       </c>
       <c r="K16">
-        <v>12.32779609792502</v>
+        <v>18.87197047710256</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.99498135563606</v>
+        <v>15.83756181070515</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.8914525640655</v>
+        <v>17.20260774303343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.09391118965552</v>
+        <v>8.357745246986305</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.986271350235215</v>
+        <v>6.969177632160986</v>
       </c>
       <c r="E17">
-        <v>13.6549841892435</v>
+        <v>9.383573903753867</v>
       </c>
       <c r="F17">
-        <v>34.33340708962015</v>
+        <v>24.63864605570612</v>
       </c>
       <c r="G17">
-        <v>3.660725633033131</v>
+        <v>2.0831593635616</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.1608152870522</v>
+        <v>5.883546525869994</v>
       </c>
       <c r="K17">
-        <v>12.17726132218469</v>
+        <v>18.51384111266138</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.92914148265765</v>
+        <v>15.52126358067759</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.92064289947328</v>
+        <v>17.1549027981846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.073009523177735</v>
+        <v>8.27126249046005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.978309317821994</v>
+        <v>6.913246204898411</v>
       </c>
       <c r="E18">
-        <v>13.65511679328071</v>
+        <v>9.340551520822022</v>
       </c>
       <c r="F18">
-        <v>34.34507387581444</v>
+        <v>24.54162437892667</v>
       </c>
       <c r="G18">
-        <v>3.661200192722053</v>
+        <v>2.084535624156999</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16641967035041</v>
+        <v>5.889324827084276</v>
       </c>
       <c r="K18">
-        <v>12.08987356621766</v>
+        <v>18.30493178670541</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.89133133188589</v>
+        <v>15.33668661264593</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.93802793685797</v>
+        <v>17.12957695940915</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.065949772242542</v>
+        <v>8.241842329645969</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.975632361656004</v>
+        <v>6.894254977077242</v>
       </c>
       <c r="E19">
-        <v>13.65520024938658</v>
+        <v>9.326044114966809</v>
       </c>
       <c r="F19">
-        <v>34.34917046232413</v>
+        <v>24.50918515067587</v>
       </c>
       <c r="G19">
-        <v>3.661361990618241</v>
+        <v>2.085002993660042</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.16833767819128</v>
+        <v>5.891334646583058</v>
       </c>
       <c r="K19">
-        <v>12.06015000335666</v>
+        <v>18.23369635064568</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.87854058971736</v>
+        <v>15.27373572501446</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.94401638807025</v>
+        <v>17.12135986692489</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.097787627963745</v>
+        <v>8.373685043486006</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.987753862096467</v>
+        <v>6.979503391066047</v>
       </c>
       <c r="E20">
-        <v>13.65497795465467</v>
+        <v>9.391564359562308</v>
       </c>
       <c r="F20">
-        <v>34.33131740080418</v>
+        <v>24.65679812108738</v>
       </c>
       <c r="G20">
-        <v>3.660638334394288</v>
+        <v>2.082905303007844</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.15978775817476</v>
+        <v>5.882502608926365</v>
       </c>
       <c r="K20">
-        <v>12.19336982818066</v>
+        <v>18.55226700447647</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.9361443497352</v>
+        <v>15.55520813792707</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.91747387826112</v>
+        <v>17.15976120382836</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.20585891903171</v>
+        <v>8.883846594465748</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.029769866651357</v>
+        <v>7.261991288469943</v>
       </c>
       <c r="E21">
-        <v>13.65690841259067</v>
+        <v>9.615730445505211</v>
       </c>
       <c r="F21">
-        <v>34.2815332592369</v>
+        <v>25.18159965755004</v>
       </c>
       <c r="G21">
-        <v>3.658284653084513</v>
+        <v>2.075950119427437</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.13248339488104</v>
+        <v>5.856639732325284</v>
       </c>
       <c r="K21">
-        <v>12.6311834842987</v>
+        <v>19.58773495787319</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.13032173757779</v>
+        <v>16.46933201472693</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.83541767700594</v>
+        <v>17.31439798645843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.277197415582771</v>
+        <v>9.212367801400848</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.058164344194907</v>
+        <v>7.443476122557241</v>
       </c>
       <c r="E22">
-        <v>13.66015912825919</v>
+        <v>9.765131426550139</v>
       </c>
       <c r="F22">
-        <v>34.25661349827761</v>
+        <v>25.54638465626453</v>
       </c>
       <c r="G22">
-        <v>3.656804045589646</v>
+        <v>2.071468722444433</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.11569711797697</v>
+        <v>5.842696805136465</v>
       </c>
       <c r="K22">
-        <v>12.90963491651909</v>
+        <v>20.23857233547507</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.25754141945871</v>
+        <v>17.04342715405839</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.78711540879822</v>
+        <v>17.4353872539197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.23906518359375</v>
+        <v>9.03829175666492</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.042925891233251</v>
+        <v>7.346913313938416</v>
       </c>
       <c r="E23">
-        <v>13.6582426025236</v>
+        <v>9.685134906485667</v>
       </c>
       <c r="F23">
-        <v>34.26921582280124</v>
+        <v>25.34967943493801</v>
       </c>
       <c r="G23">
-        <v>3.657589014152829</v>
+        <v>2.073854980088446</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.12455948030338</v>
+        <v>5.849859689334388</v>
       </c>
       <c r="K23">
-        <v>12.76174699654819</v>
+        <v>19.8935700628833</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.18962349143048</v>
+        <v>16.7391431969417</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.81240680282772</v>
+        <v>17.36893708129792</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.096034818383515</v>
+        <v>8.36648132112391</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.987083290350164</v>
+        <v>6.974836191530949</v>
       </c>
       <c r="E24">
-        <v>13.65498007466366</v>
+        <v>9.387950871710185</v>
       </c>
       <c r="F24">
-        <v>34.33225947678131</v>
+        <v>24.64858423397094</v>
       </c>
       <c r="G24">
-        <v>3.660677781158078</v>
+        <v>2.083020137053365</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.16025192530041</v>
+        <v>5.882973577414357</v>
       </c>
       <c r="K24">
-        <v>12.18608979328261</v>
+        <v>18.5349040540442</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.932978220093</v>
+        <v>15.53987031877048</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.91890471427925</v>
+        <v>17.15755818892048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.945519820309974</v>
+        <v>7.721295091412755</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.93102899146162</v>
+        <v>6.561436059494394</v>
       </c>
       <c r="E25">
-        <v>13.66003974150889</v>
+        <v>9.08052045374353</v>
       </c>
       <c r="F25">
-        <v>34.43285881890529</v>
+        <v>23.98385730904853</v>
       </c>
       <c r="G25">
-        <v>3.664258735200466</v>
+        <v>2.093213107777883</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.20330580934919</v>
+        <v>5.930644837440229</v>
       </c>
       <c r="K25">
-        <v>11.53480656691877</v>
+        <v>16.9576457186352</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.65853474622108</v>
+        <v>14.14482131902695</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.05653308694428</v>
+        <v>17.00961870051012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.221970538144874</v>
+        <v>20.27193310491432</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.248536220816396</v>
+        <v>1.56393051390948</v>
       </c>
       <c r="E2">
-        <v>8.866194978670254</v>
+        <v>36.32625633844226</v>
       </c>
       <c r="F2">
-        <v>23.57017450104309</v>
+        <v>28.91638285536367</v>
       </c>
       <c r="G2">
-        <v>2.101015249823648</v>
+        <v>43.86531741432448</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.233332465200734</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.244848397060319</v>
       </c>
       <c r="J2">
-        <v>5.975251947128736</v>
+        <v>11.40027336254135</v>
       </c>
       <c r="K2">
-        <v>15.70003069623155</v>
+        <v>17.76383310569223</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.02917173895031</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.33086605798016</v>
       </c>
       <c r="O2">
-        <v>16.96319773191068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.8020699937559</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.870068634138472</v>
+        <v>18.98608028366347</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.032341923301632</v>
+        <v>1.659368493654839</v>
       </c>
       <c r="E3">
-        <v>8.728821608067983</v>
+        <v>34.22888886718785</v>
       </c>
       <c r="F3">
-        <v>23.33519428237715</v>
+        <v>26.99662162162603</v>
       </c>
       <c r="G3">
-        <v>2.106503394741306</v>
+        <v>40.67585991244584</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.493517243714563</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.398615083617321</v>
       </c>
       <c r="J3">
-        <v>6.011056073036863</v>
+        <v>10.86040844393367</v>
       </c>
       <c r="K3">
-        <v>14.78801345687368</v>
+        <v>17.72874414127625</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.21750387248708</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>10.6272165267641</v>
       </c>
       <c r="O3">
-        <v>16.96740452571959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.90102054621522</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.648052758423725</v>
+        <v>18.14960629652142</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.898020358403358</v>
+        <v>1.718134351120437</v>
       </c>
       <c r="E4">
-        <v>8.64847331938584</v>
+        <v>32.8891636345454</v>
       </c>
       <c r="F4">
-        <v>23.21254294117314</v>
+        <v>25.80565497537815</v>
       </c>
       <c r="G4">
-        <v>2.109976740843655</v>
+        <v>38.65552683444629</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.656880051220189</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.495677746497676</v>
       </c>
       <c r="J4">
-        <v>6.035678767400445</v>
+        <v>10.52931184128326</v>
       </c>
       <c r="K4">
-        <v>14.19886188289721</v>
+        <v>17.72526841498524</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.77555923034446</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10.17382929944008</v>
       </c>
       <c r="O4">
-        <v>16.98645007264571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.32032982953101</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.55621242857347</v>
+        <v>17.79601420949393</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.842964405242372</v>
+        <v>1.741391631472744</v>
       </c>
       <c r="E5">
-        <v>8.616752354916356</v>
+        <v>32.35611575044713</v>
       </c>
       <c r="F5">
-        <v>23.16787434448326</v>
+        <v>25.29969553709217</v>
       </c>
       <c r="G5">
-        <v>2.111418857665807</v>
+        <v>37.80955399538189</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.724274952690935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.538021134594963</v>
       </c>
       <c r="J5">
-        <v>6.046360651641531</v>
+        <v>10.38946720895328</v>
       </c>
       <c r="K5">
-        <v>13.95151070092932</v>
+        <v>17.7446641027253</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.59423889626326</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.990306758507041</v>
       </c>
       <c r="O5">
-        <v>16.99818163938263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.08061153504808</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.540883984492009</v>
+        <v>17.73545319465123</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.833805553466977</v>
+        <v>1.744335468051498</v>
       </c>
       <c r="E6">
-        <v>8.611547232227961</v>
+        <v>32.29847030041025</v>
       </c>
       <c r="F6">
-        <v>23.16077408563258</v>
+        <v>25.19994920064707</v>
       </c>
       <c r="G6">
-        <v>2.111659951098302</v>
+        <v>37.64158995067671</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.735366633019202</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.547785516549798</v>
       </c>
       <c r="J6">
-        <v>6.048173061795424</v>
+        <v>10.35996344218041</v>
       </c>
       <c r="K6">
-        <v>13.91000176486503</v>
+        <v>17.76837021592412</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.56390043122759</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9.967552849809096</v>
       </c>
       <c r="O6">
-        <v>17.00036449345269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.04492552078125</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.646819518667304</v>
+        <v>18.14184713069681</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.897279037760996</v>
+        <v>1.715924503255873</v>
       </c>
       <c r="E7">
-        <v>8.648041363654434</v>
+        <v>32.96672829853173</v>
       </c>
       <c r="F7">
-        <v>23.21191918996983</v>
+        <v>25.75828768248672</v>
       </c>
       <c r="G7">
-        <v>2.109996080790379</v>
+        <v>38.57403046724409</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.65732454033933</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.503324185261067</v>
       </c>
       <c r="J7">
-        <v>6.035820223632766</v>
+        <v>10.51052908465093</v>
       </c>
       <c r="K7">
-        <v>14.19555533573181</v>
+        <v>17.78120928653117</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.77312945590324</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10.19284019496614</v>
       </c>
       <c r="O7">
-        <v>16.98659243704427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.32919705806995</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.101939915962887</v>
+        <v>19.83457251824994</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.174364401925331</v>
+        <v>1.593485709807268</v>
       </c>
       <c r="E8">
-        <v>8.818008766285116</v>
+        <v>35.71862760810372</v>
       </c>
       <c r="F8">
-        <v>23.48459349637807</v>
+        <v>28.18970746538777</v>
       </c>
       <c r="G8">
-        <v>2.102886459413513</v>
+        <v>42.6984950505493</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.321577433226443</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.306150434599839</v>
       </c>
       <c r="J8">
-        <v>5.987039894848134</v>
+        <v>11.19319859273695</v>
       </c>
       <c r="K8">
-        <v>15.39165467008067</v>
+        <v>17.82401460170817</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.75500752923174</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.11899853355262</v>
       </c>
       <c r="O8">
-        <v>16.9611299211442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.5119212084377</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.942579599225994</v>
+        <v>22.78659881379255</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.702151827960106</v>
+        <v>1.569786677793312</v>
       </c>
       <c r="E9">
-        <v>9.182260055240251</v>
+        <v>40.5643103148013</v>
       </c>
       <c r="F9">
-        <v>24.19578532185816</v>
+        <v>33.12476413323005</v>
       </c>
       <c r="G9">
-        <v>2.089735558918081</v>
+        <v>50.31485397643684</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.69079967860136</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.928243852650061</v>
       </c>
       <c r="J9">
-        <v>5.913060208105758</v>
+        <v>12.55815053471295</v>
       </c>
       <c r="K9">
-        <v>17.50391558072183</v>
+        <v>17.95339404597356</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.62842071005245</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.73091966137882</v>
       </c>
       <c r="O9">
-        <v>17.04930863219828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.59040340417053</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.542347605239625</v>
+        <v>24.74065377675104</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.076849373017012</v>
+        <v>1.73253592604247</v>
       </c>
       <c r="E10">
-        <v>9.467614259601769</v>
+        <v>44.3013914590061</v>
       </c>
       <c r="F10">
-        <v>24.83155688894581</v>
+        <v>36.35889061521203</v>
       </c>
       <c r="G10">
-        <v>2.08050999173105</v>
+        <v>55.25007833914546</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.872283237439358</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.667543293965603</v>
       </c>
       <c r="J10">
-        <v>5.873006832621341</v>
+        <v>13.72510425885329</v>
       </c>
       <c r="K10">
-        <v>18.91243979212053</v>
+        <v>18.4389387324742</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.87329531225084</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.73768597834687</v>
       </c>
       <c r="O10">
-        <v>17.20834134762204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.9581652001721</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.850709750986226</v>
+        <v>25.68081662269403</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.243865366978437</v>
+        <v>1.93308955212222</v>
       </c>
       <c r="E11">
-        <v>9.601033899926827</v>
+        <v>49.4687346506217</v>
       </c>
       <c r="F11">
-        <v>25.14632877612977</v>
+        <v>36.36623298612452</v>
       </c>
       <c r="G11">
-        <v>2.076396957672553</v>
+        <v>54.97540878611571</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.87901587612053</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.574233789375142</v>
       </c>
       <c r="J11">
-        <v>5.858145621720137</v>
+        <v>13.63808284951235</v>
       </c>
       <c r="K11">
-        <v>19.52215018150782</v>
+        <v>21.31805020167434</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.41146273843506</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.49664623362758</v>
       </c>
       <c r="O11">
-        <v>17.30323352651504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.20024699974654</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.965092540374688</v>
+        <v>26.08141274986679</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.306574936659876</v>
+        <v>2.119519552549621</v>
       </c>
       <c r="E12">
-        <v>9.652055253859686</v>
+        <v>53.06092346589784</v>
       </c>
       <c r="F12">
-        <v>25.26926158507484</v>
+        <v>35.76015898709554</v>
       </c>
       <c r="G12">
-        <v>2.074850541337213</v>
+        <v>53.82543780290568</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.185442952712616</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.52878837946554</v>
       </c>
       <c r="J12">
-        <v>5.853023840663861</v>
+        <v>13.33882014105923</v>
       </c>
       <c r="K12">
-        <v>19.74858815330713</v>
+        <v>23.79858042095617</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.6112474867777</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.06132861246151</v>
       </c>
       <c r="O12">
-        <v>17.34257315246423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.09688306477822</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.940563854567896</v>
+        <v>26.10067793484673</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.293093727317947</v>
+        <v>2.301031967202082</v>
       </c>
       <c r="E13">
-        <v>9.641045052060605</v>
+        <v>55.85484443684141</v>
       </c>
       <c r="F13">
-        <v>25.2426187814383</v>
+        <v>34.55127462028776</v>
       </c>
       <c r="G13">
-        <v>2.075183111725706</v>
+        <v>51.76652711776107</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.524109898928663</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.530240710428981</v>
       </c>
       <c r="J13">
-        <v>5.854104033439407</v>
+        <v>12.81579477139416</v>
       </c>
       <c r="K13">
-        <v>19.70001805606151</v>
+        <v>26.14995497181004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.56839784106864</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.46301680607402</v>
       </c>
       <c r="O13">
-        <v>17.3339466239052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.73227459503891</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.86016776392772</v>
+        <v>25.94113707162253</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.249035472705303</v>
+        <v>2.43103290136313</v>
       </c>
       <c r="E14">
-        <v>9.605221587227566</v>
+        <v>57.51621876352105</v>
       </c>
       <c r="F14">
-        <v>25.15636734673232</v>
+        <v>33.40164886977544</v>
       </c>
       <c r="G14">
-        <v>2.076269516213272</v>
+        <v>49.86167262427335</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.475846280030074</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.554290149976237</v>
       </c>
       <c r="J14">
-        <v>5.857713976689278</v>
+        <v>12.33496096900278</v>
       </c>
       <c r="K14">
-        <v>19.54086834581964</v>
+        <v>27.77381353775978</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.42797923059192</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.96847156778908</v>
       </c>
       <c r="O14">
-        <v>17.30640083985162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.35678210657046</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.810612836401695</v>
+        <v>25.819070421577</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.221977628377021</v>
+        <v>2.458376159148946</v>
       </c>
       <c r="E15">
-        <v>9.583342966262219</v>
+        <v>57.77673774947648</v>
       </c>
       <c r="F15">
-        <v>25.10402399505556</v>
+        <v>32.97226501072684</v>
       </c>
       <c r="G15">
-        <v>2.076936386950848</v>
+        <v>49.16721545542862</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.690474854363157</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.574731351317005</v>
       </c>
       <c r="J15">
-        <v>5.859991745184841</v>
+        <v>12.16097322916161</v>
       </c>
       <c r="K15">
-        <v>19.44280620150172</v>
+        <v>28.14905140994503</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.34144809343953</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.81723291316917</v>
       </c>
       <c r="O15">
-        <v>17.28997658830534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.21140278630232</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.521859722467779</v>
+        <v>25.02021816687938</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.065861624275231</v>
+        <v>2.367194427613288</v>
       </c>
       <c r="E16">
-        <v>9.458965805079512</v>
+        <v>55.95000112537881</v>
       </c>
       <c r="F16">
-        <v>24.81150542371453</v>
+        <v>31.6826107954847</v>
       </c>
       <c r="G16">
-        <v>2.080780394112044</v>
+        <v>47.19844234248934</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.454613458718093</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.69418767782362</v>
       </c>
       <c r="J16">
-        <v>5.874047561428348</v>
+        <v>11.67857989410004</v>
       </c>
       <c r="K16">
-        <v>18.87197047710256</v>
+        <v>27.49358085315707</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.83756181070515</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.48795165333757</v>
       </c>
       <c r="O16">
-        <v>17.20260774303343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.67416825441778</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.357745246986305</v>
+        <v>24.48252175810273</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.969177632160986</v>
+        <v>2.220343755107754</v>
       </c>
       <c r="E17">
-        <v>9.383573903753867</v>
+        <v>53.58162729427721</v>
       </c>
       <c r="F17">
-        <v>24.63864605570612</v>
+        <v>31.33797873075859</v>
       </c>
       <c r="G17">
-        <v>2.0831593635616</v>
+        <v>46.76134044888425</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.721984289368589</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.773248514711495</v>
       </c>
       <c r="J17">
-        <v>5.883546525869994</v>
+        <v>11.57995591135547</v>
       </c>
       <c r="K17">
-        <v>18.51384111266138</v>
+        <v>26.09644971819787</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.52126358067759</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.50757642207681</v>
       </c>
       <c r="O17">
-        <v>17.1549027981846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.46377632633454</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.27126249046005</v>
+        <v>24.12170496910081</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.913246204898411</v>
+        <v>2.018474941618199</v>
       </c>
       <c r="E18">
-        <v>9.340551520822022</v>
+        <v>50.45653158227511</v>
       </c>
       <c r="F18">
-        <v>24.54162437892667</v>
+        <v>31.81328438206297</v>
       </c>
       <c r="G18">
-        <v>2.084535624156999</v>
+        <v>47.67313020521705</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.471965891912192</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.814972897100342</v>
       </c>
       <c r="J18">
-        <v>5.889324827084276</v>
+        <v>11.81970495717419</v>
       </c>
       <c r="K18">
-        <v>18.30493178670541</v>
+        <v>23.89958349790139</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.33668661264593</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.8242582864425</v>
       </c>
       <c r="O18">
-        <v>17.12957695940915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.51187070443567</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.241842329645969</v>
+        <v>23.93015106241108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.894254977077242</v>
+        <v>1.829562691259887</v>
       </c>
       <c r="E19">
-        <v>9.326044114966809</v>
+        <v>47.18734201677481</v>
       </c>
       <c r="F19">
-        <v>24.50918515067587</v>
+        <v>32.85418191381132</v>
       </c>
       <c r="G19">
-        <v>2.085002993660042</v>
+        <v>49.50358891863471</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.982495543545682</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.832321329701423</v>
       </c>
       <c r="J19">
-        <v>5.891334646583058</v>
+        <v>12.2875062191006</v>
       </c>
       <c r="K19">
-        <v>18.23369635064568</v>
+        <v>21.51729007623781</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.27373572501446</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.38766588014165</v>
       </c>
       <c r="O19">
-        <v>17.12135986692489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.79064138179416</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.373685043486006</v>
+        <v>24.23592903098159</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.979503391066047</v>
+        <v>1.695801963468172</v>
       </c>
       <c r="E20">
-        <v>9.391564359562308</v>
+        <v>43.56868535992616</v>
       </c>
       <c r="F20">
-        <v>24.65679812108738</v>
+        <v>35.42541097258725</v>
       </c>
       <c r="G20">
-        <v>2.082905303007844</v>
+        <v>53.80452988162475</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.758591637954745</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.75824318831347</v>
       </c>
       <c r="J20">
-        <v>5.882502608926365</v>
+        <v>13.36884917452507</v>
       </c>
       <c r="K20">
-        <v>18.55226700447647</v>
+        <v>18.50892832433487</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.55520813792707</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.52776008115895</v>
       </c>
       <c r="O20">
-        <v>17.15976120382836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.61940766775768</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.883846594465748</v>
+        <v>25.64767893697703</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.261991288469943</v>
+        <v>1.807826058543234</v>
       </c>
       <c r="E21">
-        <v>9.615730445505211</v>
+        <v>45.6920534826495</v>
       </c>
       <c r="F21">
-        <v>25.18159965755004</v>
+        <v>38.12214152774533</v>
       </c>
       <c r="G21">
-        <v>2.075950119427437</v>
+        <v>57.98088570127672</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.095293851056416</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.553612246190688</v>
       </c>
       <c r="J21">
-        <v>5.856639732325284</v>
+        <v>14.3983881169085</v>
       </c>
       <c r="K21">
-        <v>19.58773495787319</v>
+        <v>18.47117339160519</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.46933201472693</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.38243657209314</v>
       </c>
       <c r="O21">
-        <v>17.31439798645843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.73505513671514</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.212367801400848</v>
+        <v>26.53904022074348</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.443476122557241</v>
+        <v>1.885137236158917</v>
       </c>
       <c r="E22">
-        <v>9.765131426550139</v>
+        <v>47.16142397307856</v>
       </c>
       <c r="F22">
-        <v>25.54638465626453</v>
+        <v>39.79570418135251</v>
       </c>
       <c r="G22">
-        <v>2.071468722444433</v>
+        <v>60.56546156317704</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.311472731180727</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.413011858421396</v>
       </c>
       <c r="J22">
-        <v>5.842696805136465</v>
+        <v>15.0357600434025</v>
       </c>
       <c r="K22">
-        <v>20.23857233547507</v>
+        <v>18.52009951894196</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.04342715405839</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.86034912142288</v>
       </c>
       <c r="O22">
-        <v>17.4353872539197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.40270746048457</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.03829175666492</v>
+        <v>26.06961256464107</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.346913313938416</v>
+        <v>1.841717917281407</v>
       </c>
       <c r="E23">
-        <v>9.685134906485667</v>
+        <v>46.30614613476611</v>
       </c>
       <c r="F23">
-        <v>25.34967943493801</v>
+        <v>38.93661393572741</v>
       </c>
       <c r="G23">
-        <v>2.073854980088446</v>
+        <v>59.24426430847691</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.195184481914104</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.478932497297929</v>
       </c>
       <c r="J23">
-        <v>5.849859689334388</v>
+        <v>14.71026012138113</v>
       </c>
       <c r="K23">
-        <v>19.8935700628833</v>
+        <v>18.4187030291241</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.7391431969417</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.58850190839481</v>
       </c>
       <c r="O23">
-        <v>17.36893708129792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.03879539862763</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.36648132112391</v>
+        <v>24.20672413610518</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.974836191530949</v>
+        <v>1.683593160329662</v>
       </c>
       <c r="E24">
-        <v>9.387950871710185</v>
+        <v>43.09530489534911</v>
       </c>
       <c r="F24">
-        <v>24.64858423397094</v>
+        <v>35.56562482626493</v>
       </c>
       <c r="G24">
-        <v>2.083020137053365</v>
+        <v>54.05570947398283</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.754092330150762</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.745913255415655</v>
       </c>
       <c r="J24">
-        <v>5.882973577414357</v>
+        <v>13.43297173868875</v>
       </c>
       <c r="K24">
-        <v>18.5349040540442</v>
+        <v>18.18952367450516</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.53987031877048</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.549747550729</v>
       </c>
       <c r="O24">
-        <v>17.15755818892048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.62245863031518</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.721295091412755</v>
+        <v>22.02310952499012</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.561436059494394</v>
+        <v>1.5175848831388</v>
       </c>
       <c r="E25">
-        <v>9.08052045374353</v>
+        <v>39.42834247448294</v>
       </c>
       <c r="F25">
-        <v>23.98385730904853</v>
+        <v>31.76677777289775</v>
       </c>
       <c r="G25">
-        <v>2.093213107777883</v>
+        <v>48.21836719225348</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.857657014175204</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.040892249550142</v>
       </c>
       <c r="J25">
-        <v>5.930644837440229</v>
+        <v>12.16355600776425</v>
       </c>
       <c r="K25">
-        <v>16.9576457186352</v>
+        <v>18.00994140678191</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.14482131902695</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.34559645097899</v>
       </c>
       <c r="O25">
-        <v>17.00961870051012</v>
+        <v>17.07050429574765</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.27193310491432</v>
+        <v>20.30255324533688</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.56393051390948</v>
+        <v>1.823467710496018</v>
       </c>
       <c r="E2">
-        <v>36.32625633844226</v>
+        <v>33.43575975168713</v>
       </c>
       <c r="F2">
-        <v>28.91638285536367</v>
+        <v>29.90860459842015</v>
       </c>
       <c r="G2">
-        <v>43.86531741432448</v>
+        <v>45.73201712907485</v>
       </c>
       <c r="H2">
-        <v>2.233332465200734</v>
+        <v>2.105301490560174</v>
       </c>
       <c r="I2">
-        <v>4.244848397060319</v>
+        <v>3.94781484821315</v>
       </c>
       <c r="J2">
-        <v>11.40027336254135</v>
+        <v>12.51932033914619</v>
       </c>
       <c r="K2">
-        <v>17.76383310569223</v>
+        <v>15.79470789716154</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.63970571186919</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.6518903032859</v>
       </c>
       <c r="N2">
-        <v>11.33086605798016</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.8020699937559</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10.64819423360282</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.52165741226114</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.98608028366347</v>
+        <v>18.99996800581222</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.659368493654839</v>
+        <v>1.893014803251402</v>
       </c>
       <c r="E3">
-        <v>34.22888886718785</v>
+        <v>31.41869871076121</v>
       </c>
       <c r="F3">
-        <v>26.99662162162603</v>
+        <v>28.04756180614555</v>
       </c>
       <c r="G3">
-        <v>40.67585991244584</v>
+        <v>42.4769950827511</v>
       </c>
       <c r="H3">
-        <v>2.493517243714563</v>
+        <v>2.341556998516437</v>
       </c>
       <c r="I3">
-        <v>4.398615083617321</v>
+        <v>4.076809731825633</v>
       </c>
       <c r="J3">
-        <v>10.86040844393367</v>
+        <v>12.00338201253731</v>
       </c>
       <c r="K3">
-        <v>17.72874414127625</v>
+        <v>15.86417136833961</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.51947024101342</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.8907922773719</v>
       </c>
       <c r="N3">
-        <v>10.6272165267641</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.90102054621522</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10.01337260903622</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.62526371120204</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.14960629652142</v>
+        <v>18.15130985231625</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.718134351120437</v>
+        <v>1.935676670670437</v>
       </c>
       <c r="E4">
-        <v>32.8891636345454</v>
+        <v>30.12922726852726</v>
       </c>
       <c r="F4">
-        <v>25.80565497537815</v>
+        <v>26.86791295042732</v>
       </c>
       <c r="G4">
-        <v>38.65552683444629</v>
+        <v>40.39750952137226</v>
       </c>
       <c r="H4">
-        <v>2.656880051220189</v>
+        <v>2.49005319409167</v>
       </c>
       <c r="I4">
-        <v>4.495677746497676</v>
+        <v>4.15856986551136</v>
       </c>
       <c r="J4">
-        <v>10.52931184128326</v>
+        <v>11.68100352853816</v>
       </c>
       <c r="K4">
-        <v>17.72526841498524</v>
+        <v>15.92348156638133</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.47333347338199</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.04738079729122</v>
       </c>
       <c r="N4">
-        <v>10.17382929944008</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.32032982953101</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.60609968320097</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.04702559703598</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79601420949393</v>
+        <v>17.79245276425131</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.741391631472744</v>
+        <v>1.952210604752034</v>
       </c>
       <c r="E5">
-        <v>32.35611575044713</v>
+        <v>29.61104021055817</v>
       </c>
       <c r="F5">
-        <v>25.29969553709217</v>
+        <v>26.36839039839976</v>
       </c>
       <c r="G5">
-        <v>37.80955399538189</v>
+        <v>39.51294557301551</v>
       </c>
       <c r="H5">
-        <v>2.724274952690935</v>
+        <v>2.551466558569023</v>
       </c>
       <c r="I5">
-        <v>4.538021134594963</v>
+        <v>4.195150967131949</v>
       </c>
       <c r="J5">
-        <v>10.38946720895328</v>
+        <v>11.54447179642569</v>
       </c>
       <c r="K5">
-        <v>17.7446641027253</v>
+        <v>15.96003970821537</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.46476090306385</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.12266614209611</v>
       </c>
       <c r="N5">
-        <v>9.990306758507041</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.08061153504808</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9.441152337967786</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.80742294164999</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73545319465123</v>
+        <v>17.73124140212521</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.744335468051498</v>
+        <v>1.95391136757659</v>
       </c>
       <c r="E6">
-        <v>32.29847030041025</v>
+        <v>29.54862301213308</v>
       </c>
       <c r="F6">
-        <v>25.19994920064707</v>
+        <v>26.27297066938679</v>
       </c>
       <c r="G6">
-        <v>37.64158995067671</v>
+        <v>39.34435583030177</v>
       </c>
       <c r="H6">
-        <v>2.735366633019202</v>
+        <v>2.561719018844456</v>
       </c>
       <c r="I6">
-        <v>4.547785516549798</v>
+        <v>4.20460954737678</v>
       </c>
       <c r="J6">
-        <v>10.35996344218041</v>
+        <v>11.51699054089477</v>
       </c>
       <c r="K6">
-        <v>17.76837021592412</v>
+        <v>15.97666724074695</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.4678508914859</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.14644740638582</v>
       </c>
       <c r="N6">
-        <v>9.967552849809096</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.04492552078125</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.420008786302761</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.77078694856244</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.14184713069681</v>
+        <v>18.14494467455599</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.715924503255873</v>
+        <v>1.930626408266518</v>
       </c>
       <c r="E7">
-        <v>32.96672829853173</v>
+        <v>30.1655408657529</v>
       </c>
       <c r="F7">
-        <v>25.75828768248672</v>
+        <v>26.78607542655987</v>
       </c>
       <c r="G7">
-        <v>38.57403046724409</v>
+        <v>40.39876069409048</v>
       </c>
       <c r="H7">
-        <v>2.65732454033933</v>
+        <v>2.491626071220541</v>
       </c>
       <c r="I7">
-        <v>4.503324185261067</v>
+        <v>4.168157324295775</v>
       </c>
       <c r="J7">
-        <v>10.51052908465093</v>
+        <v>11.58399476909064</v>
       </c>
       <c r="K7">
-        <v>17.78120928653117</v>
+        <v>15.95744849227568</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.488137562993</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.08321100475668</v>
       </c>
       <c r="N7">
-        <v>10.19284019496614</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.32919705806995</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>9.616237225014036</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.0507048504439</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.83457251824994</v>
+        <v>19.86299208378406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.593485709807268</v>
+        <v>1.835814404994309</v>
       </c>
       <c r="E8">
-        <v>35.71862760810372</v>
+        <v>32.76325400530831</v>
       </c>
       <c r="F8">
-        <v>28.18970746538777</v>
+        <v>29.10253898944361</v>
       </c>
       <c r="G8">
-        <v>42.6984950505493</v>
+        <v>44.76558332952752</v>
       </c>
       <c r="H8">
-        <v>2.321577433226443</v>
+        <v>2.188392138420162</v>
       </c>
       <c r="I8">
-        <v>4.306150434599839</v>
+        <v>4.003742349378632</v>
       </c>
       <c r="J8">
-        <v>11.19319859273695</v>
+        <v>12.0656466523539</v>
       </c>
       <c r="K8">
-        <v>17.82401460170817</v>
+        <v>15.87358839351939</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.62641140189076</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.78673290971894</v>
       </c>
       <c r="N8">
-        <v>11.11899853355262</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.5119212084377</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10.43873839171189</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.22190403186624</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.78659881379255</v>
+        <v>22.84648337557911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.569786677793312</v>
+        <v>1.661880110576159</v>
       </c>
       <c r="E9">
-        <v>40.5643103148013</v>
+        <v>37.42325732765075</v>
       </c>
       <c r="F9">
-        <v>33.12476413323005</v>
+        <v>33.77974943660039</v>
       </c>
       <c r="G9">
-        <v>50.31485397643684</v>
+        <v>52.53242390492303</v>
       </c>
       <c r="H9">
-        <v>1.69079967860136</v>
+        <v>1.616796488264744</v>
       </c>
       <c r="I9">
-        <v>3.928243852650061</v>
+        <v>3.685712903565976</v>
       </c>
       <c r="J9">
-        <v>12.55815053471295</v>
+        <v>13.28758056224361</v>
       </c>
       <c r="K9">
-        <v>17.95339404597356</v>
+        <v>15.77200817250151</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.06845275956645</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.21809277183318</v>
       </c>
       <c r="N9">
-        <v>12.73091966137882</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.59040340417053</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12.0013301411027</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.28809403542046</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.74065377675104</v>
+        <v>24.82215468062424</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.73253592604247</v>
+        <v>1.503818710648991</v>
       </c>
       <c r="E10">
-        <v>44.3013914590061</v>
+        <v>40.83092779291148</v>
       </c>
       <c r="F10">
-        <v>36.35889061521203</v>
+        <v>36.75316510022611</v>
       </c>
       <c r="G10">
-        <v>55.25007833914546</v>
+        <v>57.91024862371279</v>
       </c>
       <c r="H10">
-        <v>1.872283237439358</v>
+        <v>1.895982674620597</v>
       </c>
       <c r="I10">
-        <v>3.667543293965603</v>
+        <v>3.472487520482991</v>
       </c>
       <c r="J10">
-        <v>13.72510425885329</v>
+        <v>13.68997283692735</v>
       </c>
       <c r="K10">
-        <v>18.4389387324742</v>
+        <v>15.99294432729815</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.66842982820852</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.01574762081101</v>
       </c>
       <c r="N10">
-        <v>13.73768597834687</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.9581652001721</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>12.94796952884875</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.59915999035839</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.68081662269403</v>
+        <v>25.80069052739105</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.93308955212222</v>
+        <v>1.573353756784003</v>
       </c>
       <c r="E11">
-        <v>49.4687346506217</v>
+        <v>44.92019682536957</v>
       </c>
       <c r="F11">
-        <v>36.36623298612452</v>
+        <v>36.58788075614075</v>
       </c>
       <c r="G11">
-        <v>54.97540878611571</v>
+        <v>58.79568247390245</v>
       </c>
       <c r="H11">
-        <v>2.87901587612053</v>
+        <v>2.862971956606571</v>
       </c>
       <c r="I11">
-        <v>3.574233789375142</v>
+        <v>3.414862614493168</v>
       </c>
       <c r="J11">
-        <v>13.63808284951235</v>
+        <v>12.66897062475838</v>
       </c>
       <c r="K11">
-        <v>21.31805020167434</v>
+        <v>17.77569380730216</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.22575139652293</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.21343359255189</v>
       </c>
       <c r="N11">
-        <v>13.49664623362758</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.20024699974654</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>12.46539652753817</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.68903123809917</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.08141274986679</v>
+        <v>26.22727537128527</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.119519552549621</v>
+        <v>1.718582211195567</v>
       </c>
       <c r="E12">
-        <v>53.06092346589784</v>
+        <v>47.72206770854387</v>
       </c>
       <c r="F12">
-        <v>35.76015898709554</v>
+        <v>35.98818996992115</v>
       </c>
       <c r="G12">
-        <v>53.82543780290568</v>
+        <v>58.3313262031279</v>
       </c>
       <c r="H12">
-        <v>4.185442952712616</v>
+        <v>4.15994916824882</v>
       </c>
       <c r="I12">
-        <v>3.52878837946554</v>
+        <v>3.38776761398521</v>
       </c>
       <c r="J12">
-        <v>13.33882014105923</v>
+        <v>11.97311833238086</v>
       </c>
       <c r="K12">
-        <v>23.79858042095617</v>
+        <v>19.35066991598283</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.49692954129386</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.35216544814102</v>
       </c>
       <c r="N12">
-        <v>13.06132861246151</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>19.09688306477822</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.85915048922816</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.48625238632903</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.10067793484673</v>
+        <v>26.26548881935208</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.301031967202082</v>
+        <v>1.845046639020239</v>
       </c>
       <c r="E13">
-        <v>55.85484443684141</v>
+        <v>49.90687340716249</v>
       </c>
       <c r="F13">
-        <v>34.55127462028776</v>
+        <v>35.02138688462152</v>
       </c>
       <c r="G13">
-        <v>51.76652711776107</v>
+        <v>56.56746902620998</v>
       </c>
       <c r="H13">
-        <v>5.524109898928663</v>
+        <v>5.49899472399847</v>
       </c>
       <c r="I13">
-        <v>3.530240710428981</v>
+        <v>3.397325081675326</v>
       </c>
       <c r="J13">
-        <v>12.81579477139416</v>
+        <v>11.62611304889196</v>
       </c>
       <c r="K13">
-        <v>26.14995497181004</v>
+        <v>20.8212457237535</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>16.5848085558752</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.49647098587808</v>
       </c>
       <c r="N13">
-        <v>12.46301680607402</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.73227459503891</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.13357957437153</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.04751621855273</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.94113707162253</v>
+        <v>26.11666270720322</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.43103290136313</v>
+        <v>1.922078179555946</v>
       </c>
       <c r="E14">
-        <v>57.51621876352105</v>
+        <v>51.20875779162879</v>
       </c>
       <c r="F14">
-        <v>33.40164886977544</v>
+        <v>34.15051724052094</v>
       </c>
       <c r="G14">
-        <v>49.86167262427335</v>
+        <v>54.70779232232614</v>
       </c>
       <c r="H14">
-        <v>6.475846280030074</v>
+        <v>6.45294557641243</v>
       </c>
       <c r="I14">
-        <v>3.554290149976237</v>
+        <v>3.423212731057176</v>
       </c>
       <c r="J14">
-        <v>12.33496096900278</v>
+        <v>11.52568051054035</v>
       </c>
       <c r="K14">
-        <v>27.77381353775978</v>
+        <v>21.82018935893329</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.27411827937576</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.31514615672028</v>
       </c>
       <c r="N14">
-        <v>11.96847156778908</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.35678210657046</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>10.56702100608931</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.62967773421145</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.819070421577</v>
+        <v>25.99606324249433</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.458376159148946</v>
+        <v>1.931223563465536</v>
       </c>
       <c r="E15">
-        <v>57.77673774947648</v>
+        <v>51.41275467944089</v>
       </c>
       <c r="F15">
-        <v>32.97226501072684</v>
+        <v>33.83884396816526</v>
       </c>
       <c r="G15">
-        <v>49.16721545542862</v>
+        <v>53.95836315057857</v>
       </c>
       <c r="H15">
-        <v>6.690474854363157</v>
+        <v>6.671406943296061</v>
       </c>
       <c r="I15">
-        <v>3.574731351317005</v>
+        <v>3.442482220193299</v>
       </c>
       <c r="J15">
-        <v>12.16097322916161</v>
+        <v>11.55846907681411</v>
       </c>
       <c r="K15">
-        <v>28.14905140994503</v>
+        <v>22.04094248096942</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.4020775059376</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.51714628892048</v>
       </c>
       <c r="N15">
-        <v>11.81723291316917</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.21140278630232</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>10.40474221089312</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.47809768796391</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.02021816687938</v>
+        <v>25.18365495990384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.367194427613288</v>
+        <v>1.81553074793722</v>
       </c>
       <c r="E16">
-        <v>55.95000112537881</v>
+        <v>49.95251813787569</v>
       </c>
       <c r="F16">
-        <v>31.6826107954847</v>
+        <v>32.94824356330054</v>
       </c>
       <c r="G16">
-        <v>47.19844234248934</v>
+        <v>51.3929691609419</v>
       </c>
       <c r="H16">
-        <v>6.454613458718093</v>
+        <v>6.464036930052345</v>
       </c>
       <c r="I16">
-        <v>3.69418767782362</v>
+        <v>3.53790632933281</v>
       </c>
       <c r="J16">
-        <v>11.67857989410004</v>
+        <v>12.03972020470465</v>
       </c>
       <c r="K16">
-        <v>27.49358085315707</v>
+        <v>21.52235220466939</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>16.79495290855919</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.31005591828256</v>
       </c>
       <c r="N16">
-        <v>11.48795165333757</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.67416825441778</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>10.1467761017813</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.98778554327072</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.48252175810273</v>
+        <v>24.62958948122386</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.220343755107754</v>
+        <v>1.694154835244754</v>
       </c>
       <c r="E17">
-        <v>53.58162729427721</v>
+        <v>48.04245110330878</v>
       </c>
       <c r="F17">
-        <v>31.33797873075859</v>
+        <v>32.70255206082604</v>
       </c>
       <c r="G17">
-        <v>46.76134044888425</v>
+        <v>50.52689999357259</v>
       </c>
       <c r="H17">
-        <v>5.721984289368589</v>
+        <v>5.726536356065337</v>
       </c>
       <c r="I17">
-        <v>3.773248514711495</v>
+        <v>3.598075864742594</v>
       </c>
       <c r="J17">
-        <v>11.57995591135547</v>
+        <v>12.36292947416555</v>
       </c>
       <c r="K17">
-        <v>26.09644971819787</v>
+        <v>20.60112801079503</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.9707096897862</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.71913709066066</v>
       </c>
       <c r="N17">
-        <v>11.50757642207681</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.46377632633454</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>10.2563342138488</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.83405937608915</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.12170496910081</v>
+        <v>24.24707482611451</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.018474941618199</v>
+        <v>1.557535751263081</v>
       </c>
       <c r="E18">
-        <v>50.45653158227511</v>
+        <v>45.55072538091397</v>
       </c>
       <c r="F18">
-        <v>31.81328438206297</v>
+        <v>33.08591485998723</v>
       </c>
       <c r="G18">
-        <v>47.67313020521705</v>
+        <v>50.99241985092625</v>
       </c>
       <c r="H18">
-        <v>4.471965891912192</v>
+        <v>4.469002940283642</v>
       </c>
       <c r="I18">
-        <v>3.814972897100342</v>
+        <v>3.621723102182361</v>
       </c>
       <c r="J18">
-        <v>11.81970495717419</v>
+        <v>12.74298355252055</v>
       </c>
       <c r="K18">
-        <v>23.89958349790139</v>
+        <v>19.22238469950394</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.86568430265502</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.71907823152414</v>
       </c>
       <c r="N18">
-        <v>11.8242582864425</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.51187070443567</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10.70282432405478</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.97451129088981</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.93015106241108</v>
+        <v>24.03249172168712</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.829562691259887</v>
+        <v>1.478341865942644</v>
       </c>
       <c r="E19">
-        <v>47.18734201677481</v>
+        <v>42.96973700397015</v>
       </c>
       <c r="F19">
-        <v>32.85418191381132</v>
+        <v>33.92592212885056</v>
       </c>
       <c r="G19">
-        <v>49.50358891863471</v>
+        <v>52.37083517502543</v>
       </c>
       <c r="H19">
-        <v>2.982495543545682</v>
+        <v>2.967254932449819</v>
       </c>
       <c r="I19">
-        <v>3.832321329701423</v>
+        <v>3.628304324954636</v>
       </c>
       <c r="J19">
-        <v>12.2875062191006</v>
+        <v>13.17775859873641</v>
       </c>
       <c r="K19">
-        <v>21.51729007623781</v>
+        <v>17.78350146303163</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.7718338168619</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.61816658638309</v>
       </c>
       <c r="N19">
-        <v>12.38766588014165</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.79064138179416</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>11.41556300974552</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.35353905890443</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.23592903098159</v>
+        <v>24.31207278064752</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.695801963468172</v>
+        <v>1.545081536081713</v>
       </c>
       <c r="E20">
-        <v>43.56868535992616</v>
+        <v>40.19589732938865</v>
       </c>
       <c r="F20">
-        <v>35.42541097258725</v>
+        <v>36.02688257376867</v>
       </c>
       <c r="G20">
-        <v>53.80452988162475</v>
+        <v>56.21283446851243</v>
       </c>
       <c r="H20">
-        <v>1.758591637954745</v>
+        <v>1.79600369188139</v>
       </c>
       <c r="I20">
-        <v>3.75824318831347</v>
+        <v>3.55578776443856</v>
       </c>
       <c r="J20">
-        <v>13.36884917452507</v>
+        <v>13.7984806727693</v>
       </c>
       <c r="K20">
-        <v>18.50892832433487</v>
+        <v>16.03290482079133</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.58075118374658</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.14778322646151</v>
       </c>
       <c r="N20">
-        <v>13.52776008115895</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.61940766775768</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>12.75632391255485</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.2916410158611</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.64767893697703</v>
+        <v>25.74323627591775</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.807826058543234</v>
+        <v>1.502188315459535</v>
       </c>
       <c r="E21">
-        <v>45.6920534826495</v>
+        <v>41.88599120180152</v>
       </c>
       <c r="F21">
-        <v>38.12214152774533</v>
+        <v>37.86685250556628</v>
       </c>
       <c r="G21">
-        <v>57.98088570127672</v>
+        <v>61.5031845683606</v>
       </c>
       <c r="H21">
-        <v>2.095293851056416</v>
+        <v>2.08604744401101</v>
       </c>
       <c r="I21">
-        <v>3.553612246190688</v>
+        <v>3.390364731126215</v>
       </c>
       <c r="J21">
-        <v>14.3983881169085</v>
+        <v>12.92499481691858</v>
       </c>
       <c r="K21">
-        <v>18.47117339160519</v>
+        <v>16.09698245556851</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.97737665078315</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.9009229871127</v>
       </c>
       <c r="N21">
-        <v>14.38243657209314</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.73505513671514</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>13.52432432769732</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.31951436637953</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.53904022074348</v>
+        <v>26.64698258366733</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.885137236158917</v>
+        <v>1.573124019124591</v>
       </c>
       <c r="E22">
-        <v>47.16142397307856</v>
+        <v>43.03601612245359</v>
       </c>
       <c r="F22">
-        <v>39.79570418135251</v>
+        <v>38.97300657353139</v>
       </c>
       <c r="G22">
-        <v>60.56546156317704</v>
+        <v>64.84620903676189</v>
       </c>
       <c r="H22">
-        <v>2.311472731180727</v>
+        <v>2.270626643097143</v>
       </c>
       <c r="I22">
-        <v>3.413011858421396</v>
+        <v>3.273616708679658</v>
       </c>
       <c r="J22">
-        <v>15.0357600434025</v>
+        <v>12.26978265504064</v>
       </c>
       <c r="K22">
-        <v>18.52009951894196</v>
+        <v>16.19628815806053</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.28393555753471</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.78218090028143</v>
       </c>
       <c r="N22">
-        <v>14.86034912142288</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.40270746048457</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>13.93628732686457</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.94455170237169</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.06961256464107</v>
+        <v>26.16915308888722</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.841717917281407</v>
+        <v>1.530759214529534</v>
       </c>
       <c r="E23">
-        <v>46.30614613476611</v>
+        <v>42.41132485232914</v>
       </c>
       <c r="F23">
-        <v>38.93661393572741</v>
+        <v>38.49080499437746</v>
       </c>
       <c r="G23">
-        <v>59.24426430847691</v>
+        <v>62.99083704840704</v>
       </c>
       <c r="H23">
-        <v>2.195184481914104</v>
+        <v>2.17338220665421</v>
       </c>
       <c r="I23">
-        <v>3.478932497297929</v>
+        <v>3.323811693818298</v>
       </c>
       <c r="J23">
-        <v>14.71026012138113</v>
+        <v>12.80547650434822</v>
       </c>
       <c r="K23">
-        <v>18.4187030291241</v>
+        <v>16.07660420099166</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.06889223691905</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.7948663685834</v>
       </c>
       <c r="N23">
-        <v>14.58850190839481</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.03879539862763</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>13.71357828105522</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.61131341998781</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.20672413610518</v>
+        <v>24.27940011465684</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.683593160329662</v>
+        <v>1.562236659751004</v>
       </c>
       <c r="E24">
-        <v>43.09530489534911</v>
+        <v>39.82051132890754</v>
       </c>
       <c r="F24">
-        <v>35.56562482626493</v>
+        <v>36.13921240812254</v>
       </c>
       <c r="G24">
-        <v>54.05570947398283</v>
+        <v>56.38701532075019</v>
       </c>
       <c r="H24">
-        <v>1.754092330150762</v>
+        <v>1.794489488400937</v>
       </c>
       <c r="I24">
-        <v>3.745913255415655</v>
+        <v>3.538596635674793</v>
       </c>
       <c r="J24">
-        <v>13.43297173868875</v>
+        <v>13.86613827945362</v>
       </c>
       <c r="K24">
-        <v>18.18952367450516</v>
+        <v>15.84437603713433</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.4345428226106</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.00413526613969</v>
       </c>
       <c r="N24">
-        <v>13.549747550729</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.62245863031518</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>12.80151647774234</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.30755254995034</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.02310952499012</v>
+        <v>22.07603733187622</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.5175848831388</v>
+        <v>1.707811226048585</v>
       </c>
       <c r="E25">
-        <v>39.42834247448294</v>
+        <v>36.33511647687404</v>
       </c>
       <c r="F25">
-        <v>31.76677777289775</v>
+        <v>32.52159174001535</v>
       </c>
       <c r="G25">
-        <v>48.21836719225348</v>
+        <v>50.34130922357232</v>
       </c>
       <c r="H25">
-        <v>1.857657014175204</v>
+        <v>1.767458208277559</v>
       </c>
       <c r="I25">
-        <v>4.040892249550142</v>
+        <v>3.785009201438392</v>
       </c>
       <c r="J25">
-        <v>12.16355600776425</v>
+        <v>13.04765392983088</v>
       </c>
       <c r="K25">
-        <v>18.00994140678191</v>
+        <v>15.84053730349763</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.96625670953586</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.40974172714154</v>
       </c>
       <c r="N25">
-        <v>12.34559645097899</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.07050429574765</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>11.62030791181094</v>
       </c>
       <c r="Q25">
+        <v>16.7711873073251</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
